--- a/BackBaseCloud.xlsx
+++ b/BackBaseCloud.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://abb-my.sharepoint.com/personal/kamil_grabiec_pl_abb_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLKAGRA1\source\priv\repos\BB-task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="469" documentId="11_F25DC773A252ABDACC104888795D40205ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C659D1F-C463-4BB5-86B8-66CB97630068}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84476F04-2149-41F6-AF57-49DE5D2C61A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8475" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read-me" sheetId="1" r:id="rId1"/>
@@ -54,8 +54,9 @@
     <author>tc={7AC3E469-B1B2-49EA-A675-E9CCBF3AE6F3}</author>
     <author>tc={62446161-F8BA-461F-AAA6-44E5C76DC208}</author>
     <author>tc={5BBDA3FD-6570-4F37-A7D8-014F2C45CEE2}</author>
-    <author>tc={BF36DC79-A3AA-443F-B7E2-C28F93E89A96}</author>
+    <author>tc={343D8C2E-952E-4626-B85E-42888A59CE55}</author>
     <author>tc={722EF97A-6C13-4623-B9FC-692F2649955C}</author>
+    <author>tc={A47CD464-96DD-454E-9EF8-6E9675183B5F}</author>
     <author>tc={8F36FF6D-8F81-4BE1-9A5C-7F028C86A86C}</author>
   </authors>
   <commentList>
@@ -270,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B83" authorId="6" shapeId="0" xr:uid="{BF36DC79-A3AA-443F-B7E2-C28F93E89A96}">
+    <comment ref="B84" authorId="6" shapeId="0" xr:uid="{343D8C2E-952E-4626-B85E-42888A59CE55}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -308,6 +309,14 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This also could be done in bit more robust way, where tag will also contain current date.</t>
+      </text>
+    </comment>
+    <comment ref="A95" authorId="8" shapeId="0" xr:uid="{A47CD464-96DD-454E-9EF8-6E9675183B5F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I was unable to add a tag to the article. Not sure what to do with this. Leave for now.</t>
       </text>
     </comment>
     <comment ref="A115" authorId="0" shapeId="0" xr:uid="{BEE69E04-5B6E-4237-8A24-FFA0BD4EA1F2}">
@@ -358,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B140" authorId="8" shapeId="0" xr:uid="{8F36FF6D-8F81-4BE1-9A5C-7F028C86A86C}">
+    <comment ref="B140" authorId="9" shapeId="0" xr:uid="{8F36FF6D-8F81-4BE1-9A5C-7F028C86A86C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -563,7 +572,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="135">
   <si>
     <t>Step number</t>
   </si>
@@ -632,9 +641,6 @@
   </si>
   <si>
     <t>How to run instructions</t>
-  </si>
-  <si>
-    <t>Test automation results</t>
   </si>
   <si>
     <t xml:space="preserve">I pick a Cypress automation tool for the task because: 
@@ -742,9 +748,6 @@
     <t>User should be navigated to article page with title form step 2 and body from step 3.</t>
   </si>
   <si>
-    <t xml:space="preserve">Expected that URL will contains [Article Name] + '-' + [User Name] string </t>
-  </si>
-  <si>
     <t>Verify current page URL and save it</t>
   </si>
   <si>
@@ -938,13 +941,55 @@
   </si>
   <si>
     <t>Article title and body lenght</t>
+  </si>
+  <si>
+    <t>npm version 6.14.15</t>
+  </si>
+  <si>
+    <t>node version 14.18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 7 and above </t>
+  </si>
+  <si>
+    <t>Open cmd and navigate to your folder path</t>
+  </si>
+  <si>
+    <t>Run commands:</t>
+  </si>
+  <si>
+    <t>npm install</t>
+  </si>
+  <si>
+    <t>npm install cypress --save-dev</t>
+  </si>
+  <si>
+    <t>npx cypress open</t>
+  </si>
+  <si>
+    <t>Automated</t>
+  </si>
+  <si>
+    <t>Expected that URL will contains [Article Name] + random value</t>
+  </si>
+  <si>
+    <t>Select User profile icon</t>
+  </si>
+  <si>
+    <t>As unlogged user, open page https://qa-task.backbasecloud.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the Article </t>
+  </si>
+  <si>
+    <t>Couldn't add a tag to article</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,13 +1014,6 @@
       <sz val="12"/>
       <color rgb="FF24292F"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
@@ -1127,20 +1165,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1154,17 +1219,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1175,56 +1258,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1538,11 +1576,14 @@
   <threadedComment ref="B15" dT="2022-02-07T13:52:46.61" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{5BBDA3FD-6570-4F37-A7D8-014F2C45CEE2}">
     <text>In this scenario, I don't want to fail the test because of text content. It should be happy path</text>
   </threadedComment>
-  <threadedComment ref="B83" dT="2022-02-07T14:20:18.70" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{BF36DC79-A3AA-443F-B7E2-C28F93E89A96}">
+  <threadedComment ref="B84" dT="2022-02-07T14:20:18.70" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{343D8C2E-952E-4626-B85E-42888A59CE55}">
     <text>'What's this article about?' field was skipped because it seems that this value is not used anywhere.</text>
   </threadedComment>
   <threadedComment ref="B94" dT="2022-02-07T15:28:40.14" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{722EF97A-6C13-4623-B9FC-692F2649955C}">
     <text>This also could be done in bit more robust way, where tag will also contain current date.</text>
+  </threadedComment>
+  <threadedComment ref="A95" dT="2022-02-11T16:15:27.62" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{A47CD464-96DD-454E-9EF8-6E9675183B5F}">
+    <text>I was unable to add a tag to the article. Not sure what to do with this. Leave for now.</text>
   </threadedComment>
   <threadedComment ref="B140" dT="2022-02-07T15:29:32.76" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{8F36FF6D-8F81-4BE1-9A5C-7F028C86A86C}">
     <text>Here, I can count how many articles contain today date as a double check if no fake data exists</text>
@@ -1570,263 +1611,263 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="A2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B26">
@@ -1834,7 +1875,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B27">
@@ -1842,7 +1883,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B28">
@@ -1850,7 +1891,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B29">
@@ -1858,7 +1899,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B30">
@@ -1866,139 +1907,139 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="32"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A13:I23"/>
+    <mergeCell ref="A2:I9"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A34:F34"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A13:I23"/>
-    <mergeCell ref="A2:I9"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2010,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B62000-E9EB-44BF-827E-2F559B912827}">
   <dimension ref="A1:M318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,43 +2065,43 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-      <c r="G1" s="36" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="G1" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="38" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="14"/>
+        <v>38</v>
+      </c>
+      <c r="B2" s="9"/>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="G2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="34">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="G2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2068,20 +2109,20 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>103</v>
+      <c r="B3" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
-      <c r="G3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="34">
+      <c r="G3" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="16">
         <v>6</v>
       </c>
     </row>
@@ -2090,31 +2131,31 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="G4" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="41">
+      <c r="G4" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="19">
         <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="34">
+      <c r="G5" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="16">
         <v>6</v>
       </c>
     </row>
@@ -2122,20 +2163,20 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="27">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="G6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="34">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="G6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="16">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2143,20 +2184,20 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="G7" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="34">
+      <c r="B7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="G7" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="16">
         <v>8</v>
       </c>
     </row>
@@ -2164,20 +2205,20 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="34">
+      <c r="B8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="G8" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="16">
         <v>9</v>
       </c>
     </row>
@@ -2185,18 +2226,18 @@
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="34">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="G9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="16">
         <v>10</v>
       </c>
     </row>
@@ -2204,18 +2245,18 @@
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="G10" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="34">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="G10" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="16">
         <v>11</v>
       </c>
     </row>
@@ -2235,14 +2276,14 @@
       <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="34">
+      <c r="G11" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="16">
         <v>5</v>
       </c>
     </row>
@@ -2250,22 +2291,22 @@
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="G12" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="34">
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="16">
         <v>12</v>
       </c>
     </row>
@@ -2273,190 +2314,190 @@
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="34"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
-      <c r="L14" s="35"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
+      <c r="B15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>5</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="G17" s="22" t="s">
+      <c r="B17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="G17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>7</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="G18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>8</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>9</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>10</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>11</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>12</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="28"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
@@ -2469,54 +2510,54 @@
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="27">
         <v>2</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
+      <c r="B29" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
+      <c r="B30" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -2539,173 +2580,173 @@
       <c r="A33" s="3">
         <v>1</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
+      <c r="B34" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>3</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
+      <c r="B35" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>4</v>
       </c>
-      <c r="B36" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
+      <c r="B36" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>5</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
+      <c r="B37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>6</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>7</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>8</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="15"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>9</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>10</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="15"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>11</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>12</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="17"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="27">
         <v>3</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
+      <c r="B49" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
+      <c r="B50" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
+      <c r="B51" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -2728,173 +2769,175 @@
       <c r="A54" s="3">
         <v>1</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="15"/>
+      <c r="B54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>3</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="15"/>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>4</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="15"/>
+      <c r="B57" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>5</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>6</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="15"/>
+      <c r="B59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>7</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>8</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>9</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>10</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="15"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>11</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="15"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>12</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="17"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="27">
         <v>4</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="10"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="28"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="12"/>
+      <c r="B70" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="12"/>
+      <c r="B71" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="12"/>
+      <c r="B72" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="40"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -2917,179 +2960,181 @@
       <c r="A75" s="3">
         <v>1</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="15"/>
+      <c r="B75" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2</v>
       </c>
-      <c r="B76" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="15"/>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>3</v>
       </c>
-      <c r="B77" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="15"/>
-    </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>4</v>
       </c>
-      <c r="B78" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15"/>
+      <c r="B78" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>5</v>
       </c>
-      <c r="B79" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="15"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>6</v>
       </c>
-      <c r="B80" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
+      <c r="B80" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>7</v>
       </c>
-      <c r="B81" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
+      <c r="B81" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>8</v>
       </c>
-      <c r="B82" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-    </row>
-    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B82" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>9</v>
       </c>
-      <c r="B83" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>10</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="15"/>
+      <c r="B84" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>11</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="15"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>12</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="17"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="27">
         <v>5</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="10"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="28"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="12"/>
+      <c r="B91" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="24"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="12"/>
+      <c r="B92" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="12"/>
+      <c r="B93" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="24"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C94" s="29"/>
       <c r="D94" s="29"/>
@@ -3116,171 +3161,169 @@
       <c r="A96" s="3">
         <v>1</v>
       </c>
-      <c r="B96" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
+      <c r="B96" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="10"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2</v>
       </c>
-      <c r="B97" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
+      <c r="B97" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10"/>
     </row>
     <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>3</v>
       </c>
-      <c r="B98" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
+      <c r="B98" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="10"/>
     </row>
     <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>4</v>
       </c>
-      <c r="B99" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
+      <c r="B99" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="10"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>5</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="10"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>6</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="10"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>7</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="10"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>8</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="10"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>9</v>
       </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="15"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>10</v>
       </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="10"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>11</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="15"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="10"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>12</v>
       </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="17"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="12"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="27">
         <v>6</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="10"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="28"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="12"/>
+      <c r="B112" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="24"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="12"/>
+      <c r="B113" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="24"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="12"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="24"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="40"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="26"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -3303,173 +3346,173 @@
       <c r="A117" s="3">
         <v>1</v>
       </c>
-      <c r="B117" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="15"/>
+      <c r="B117" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="10"/>
     </row>
     <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>2</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="15"/>
+      <c r="B118" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="10"/>
     </row>
     <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>3</v>
       </c>
-      <c r="B119" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="15"/>
+      <c r="B119" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="10"/>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>4</v>
       </c>
-      <c r="B120" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="15"/>
+      <c r="B120" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="10"/>
     </row>
     <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>5</v>
       </c>
-      <c r="B121" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="15"/>
+      <c r="B121" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="10"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>6</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="15"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="10"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>7</v>
       </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="15"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="10"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>8</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="15"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="10"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>9</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="15"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="10"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>10</v>
       </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="15"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="10"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>11</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="15"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="10"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>12</v>
       </c>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="17"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="12"/>
     </row>
     <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="27">
         <v>7</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="10"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="27"/>
+      <c r="E132" s="28"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="12"/>
+      <c r="B133" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="24"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="12"/>
+      <c r="B134" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" s="23"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="24"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="12"/>
+      <c r="B135" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="24"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="40"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="26"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
@@ -3492,177 +3535,177 @@
       <c r="A138" s="3">
         <v>1</v>
       </c>
-      <c r="B138" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="15"/>
+      <c r="B138" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="10"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>2</v>
       </c>
-      <c r="B139" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="15"/>
+      <c r="B139" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="10"/>
     </row>
     <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>3</v>
       </c>
-      <c r="B140" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="15"/>
+      <c r="B140" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="10"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>4</v>
       </c>
-      <c r="B141" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="15"/>
+      <c r="B141" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="10"/>
     </row>
     <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>5</v>
       </c>
-      <c r="B142" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="15"/>
+      <c r="B142" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="10"/>
     </row>
     <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>6</v>
       </c>
-      <c r="B143" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="15"/>
+      <c r="B143" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="10"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>7</v>
       </c>
-      <c r="B144" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="15"/>
+      <c r="B144" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="10"/>
     </row>
     <row r="145" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>8</v>
       </c>
-      <c r="B145" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C145" s="14"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="15"/>
+      <c r="B145" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="10"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>9</v>
       </c>
-      <c r="B146" s="14"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="15"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="10"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>10</v>
       </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="14"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="15"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="10"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>11</v>
       </c>
-      <c r="B148" s="14"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="15"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="10"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>12</v>
       </c>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="17"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="12"/>
     </row>
     <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B153" s="27">
         <v>8</v>
       </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="10"/>
+      <c r="C153" s="27"/>
+      <c r="D153" s="27"/>
+      <c r="E153" s="28"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="12"/>
+      <c r="B154" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="24"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="12"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="24"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="12"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="24"/>
     </row>
     <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B157" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C157" s="39"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="40"/>
+      <c r="B157" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="26"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
@@ -3685,182 +3728,182 @@
       <c r="A159" s="3">
         <v>1</v>
       </c>
-      <c r="B159" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="15"/>
+      <c r="B159" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="10"/>
     </row>
     <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>2</v>
       </c>
-      <c r="B160" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="15"/>
+      <c r="B160" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="10"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" t="s">
-        <v>116</v>
-      </c>
-      <c r="C161" s="14"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="15"/>
+        <v>114</v>
+      </c>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="10"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>120</v>
-      </c>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="15"/>
+        <v>118</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="10"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>117</v>
-      </c>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="10"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>118</v>
-      </c>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="15"/>
+        <v>116</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="10"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>121</v>
-      </c>
-      <c r="C165" s="14"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="10"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>119</v>
-      </c>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="10"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>120</v>
-      </c>
-      <c r="C167" s="14"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="15"/>
+        <v>118</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="10"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>9</v>
       </c>
-      <c r="B168" s="14"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="15"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="10"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>10</v>
       </c>
-      <c r="B169" s="14"/>
-      <c r="C169" s="14"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="15"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="10"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>11</v>
       </c>
-      <c r="B170" s="14"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="15"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="10"/>
     </row>
     <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>12</v>
       </c>
-      <c r="B171" s="16"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="17"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="12"/>
     </row>
     <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B175" s="27">
         <v>9</v>
       </c>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
-      <c r="E175" s="10"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="28"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="12"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="24"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="12"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="24"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="12"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="24"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B179" s="39"/>
-      <c r="C179" s="39"/>
-      <c r="D179" s="39"/>
-      <c r="E179" s="40"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
+      <c r="E179" s="26"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
@@ -3883,159 +3926,159 @@
       <c r="A181" s="3">
         <v>1</v>
       </c>
-      <c r="B181" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="15"/>
+      <c r="B181" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="10"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>2</v>
       </c>
-      <c r="B182" s="14"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="15"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="E182" s="10"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>3</v>
       </c>
-      <c r="B183" s="14"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="15"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="10"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>4</v>
       </c>
-      <c r="B184" s="14"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="15"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="E184" s="10"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>5</v>
       </c>
-      <c r="B185" s="14"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="15"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="10"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>6</v>
       </c>
-      <c r="B186" s="14"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="15"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="10"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>7</v>
       </c>
-      <c r="B187" s="14"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="15"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="10"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>8</v>
       </c>
-      <c r="B188" s="14"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="15"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="E188" s="10"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>9</v>
       </c>
-      <c r="B189" s="14"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="15"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="E189" s="10"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>10</v>
       </c>
-      <c r="B190" s="14"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="15"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="E190" s="10"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>11</v>
       </c>
-      <c r="B191" s="14"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="15"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="E191" s="10"/>
     </row>
     <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>12</v>
       </c>
-      <c r="B192" s="16"/>
-      <c r="C192" s="16"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="17"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="12"/>
     </row>
     <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="9">
+      <c r="B196" s="27">
         <v>10</v>
       </c>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="10"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="27"/>
+      <c r="E196" s="28"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="12"/>
+      <c r="B197" s="23"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="24"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="12"/>
+      <c r="B198" s="23"/>
+      <c r="C198" s="23"/>
+      <c r="D198" s="23"/>
+      <c r="E198" s="24"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="12"/>
+      <c r="B199" s="23"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="23"/>
+      <c r="E199" s="24"/>
     </row>
     <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B200" s="39"/>
-      <c r="C200" s="39"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="40"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="25"/>
+      <c r="E200" s="26"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
@@ -4058,157 +4101,157 @@
       <c r="A202" s="3">
         <v>1</v>
       </c>
-      <c r="B202" s="14"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="15"/>
+      <c r="B202" s="9"/>
+      <c r="C202" s="9"/>
+      <c r="D202" s="9"/>
+      <c r="E202" s="10"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>2</v>
       </c>
-      <c r="B203" s="14"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="15"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="10"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>3</v>
       </c>
-      <c r="B204" s="14"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="15"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="9"/>
+      <c r="E204" s="10"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>4</v>
       </c>
-      <c r="B205" s="14"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
-      <c r="E205" s="15"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="9"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="10"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>5</v>
       </c>
-      <c r="B206" s="14"/>
-      <c r="C206" s="14"/>
-      <c r="D206" s="14"/>
-      <c r="E206" s="15"/>
+      <c r="B206" s="9"/>
+      <c r="C206" s="9"/>
+      <c r="D206" s="9"/>
+      <c r="E206" s="10"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>6</v>
       </c>
-      <c r="B207" s="14"/>
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
-      <c r="E207" s="15"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="10"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>7</v>
       </c>
-      <c r="B208" s="14"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
-      <c r="E208" s="15"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="E208" s="10"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>8</v>
       </c>
-      <c r="B209" s="14"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="15"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="10"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>9</v>
       </c>
-      <c r="B210" s="14"/>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="15"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+      <c r="E210" s="10"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>10</v>
       </c>
-      <c r="B211" s="14"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="15"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="E211" s="10"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>11</v>
       </c>
-      <c r="B212" s="14"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="15"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9"/>
+      <c r="E212" s="10"/>
     </row>
     <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>12</v>
       </c>
-      <c r="B213" s="16"/>
-      <c r="C213" s="16"/>
-      <c r="D213" s="16"/>
-      <c r="E213" s="17"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="12"/>
     </row>
     <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B217" s="9">
+      <c r="B217" s="27">
         <v>11</v>
       </c>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="10"/>
+      <c r="C217" s="27"/>
+      <c r="D217" s="27"/>
+      <c r="E217" s="28"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
-      <c r="D218" s="11"/>
-      <c r="E218" s="12"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="23"/>
+      <c r="D218" s="23"/>
+      <c r="E218" s="24"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
-      <c r="E219" s="12"/>
+      <c r="B219" s="23"/>
+      <c r="C219" s="23"/>
+      <c r="D219" s="23"/>
+      <c r="E219" s="24"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="11"/>
-      <c r="E220" s="12"/>
+      <c r="B220" s="23"/>
+      <c r="C220" s="23"/>
+      <c r="D220" s="23"/>
+      <c r="E220" s="24"/>
     </row>
     <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B221" s="39"/>
-      <c r="C221" s="39"/>
-      <c r="D221" s="39"/>
-      <c r="E221" s="40"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="26"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
@@ -4231,157 +4274,157 @@
       <c r="A223" s="3">
         <v>1</v>
       </c>
-      <c r="B223" s="14"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="15"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="9"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="10"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>2</v>
       </c>
-      <c r="B224" s="14"/>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="15"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
+      <c r="D224" s="9"/>
+      <c r="E224" s="10"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>3</v>
       </c>
-      <c r="B225" s="14"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
-      <c r="E225" s="15"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="9"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="10"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>4</v>
       </c>
-      <c r="B226" s="14"/>
-      <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
-      <c r="E226" s="15"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="9"/>
+      <c r="D226" s="9"/>
+      <c r="E226" s="10"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>5</v>
       </c>
-      <c r="B227" s="14"/>
-      <c r="C227" s="14"/>
-      <c r="D227" s="14"/>
-      <c r="E227" s="15"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="10"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>6</v>
       </c>
-      <c r="B228" s="14"/>
-      <c r="C228" s="14"/>
-      <c r="D228" s="14"/>
-      <c r="E228" s="15"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="9"/>
+      <c r="D228" s="9"/>
+      <c r="E228" s="10"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>7</v>
       </c>
-      <c r="B229" s="14"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="15"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="10"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>8</v>
       </c>
-      <c r="B230" s="14"/>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="15"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="10"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>9</v>
       </c>
-      <c r="B231" s="14"/>
-      <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
-      <c r="E231" s="15"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="10"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>10</v>
       </c>
-      <c r="B232" s="14"/>
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="15"/>
+      <c r="B232" s="9"/>
+      <c r="C232" s="9"/>
+      <c r="D232" s="9"/>
+      <c r="E232" s="10"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>11</v>
       </c>
-      <c r="B233" s="14"/>
-      <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
-      <c r="E233" s="15"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
+      <c r="E233" s="10"/>
     </row>
     <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>12</v>
       </c>
-      <c r="B234" s="16"/>
-      <c r="C234" s="16"/>
-      <c r="D234" s="16"/>
-      <c r="E234" s="17"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="12"/>
     </row>
     <row r="237" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B238" s="9">
+      <c r="B238" s="27">
         <v>12</v>
       </c>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="E238" s="10"/>
+      <c r="C238" s="27"/>
+      <c r="D238" s="27"/>
+      <c r="E238" s="28"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
-      <c r="E239" s="12"/>
+      <c r="B239" s="23"/>
+      <c r="C239" s="23"/>
+      <c r="D239" s="23"/>
+      <c r="E239" s="24"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
-      <c r="D240" s="11"/>
-      <c r="E240" s="12"/>
+      <c r="B240" s="23"/>
+      <c r="C240" s="23"/>
+      <c r="D240" s="23"/>
+      <c r="E240" s="24"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
-      <c r="E241" s="12"/>
+      <c r="B241" s="23"/>
+      <c r="C241" s="23"/>
+      <c r="D241" s="23"/>
+      <c r="E241" s="24"/>
     </row>
     <row r="242" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B242" s="39"/>
-      <c r="C242" s="39"/>
-      <c r="D242" s="39"/>
-      <c r="E242" s="40"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="25"/>
+      <c r="E242" s="26"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
@@ -4404,157 +4447,157 @@
       <c r="A244" s="3">
         <v>1</v>
       </c>
-      <c r="B244" s="14"/>
-      <c r="C244" s="14"/>
-      <c r="D244" s="14"/>
-      <c r="E244" s="15"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="9"/>
+      <c r="D244" s="9"/>
+      <c r="E244" s="10"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>2</v>
       </c>
-      <c r="B245" s="14"/>
-      <c r="C245" s="14"/>
-      <c r="D245" s="14"/>
-      <c r="E245" s="15"/>
+      <c r="B245" s="9"/>
+      <c r="C245" s="9"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="10"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>3</v>
       </c>
-      <c r="B246" s="14"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
-      <c r="E246" s="15"/>
+      <c r="B246" s="9"/>
+      <c r="C246" s="9"/>
+      <c r="D246" s="9"/>
+      <c r="E246" s="10"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>4</v>
       </c>
-      <c r="B247" s="14"/>
-      <c r="C247" s="14"/>
-      <c r="D247" s="14"/>
-      <c r="E247" s="15"/>
+      <c r="B247" s="9"/>
+      <c r="C247" s="9"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="10"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>5</v>
       </c>
-      <c r="B248" s="14"/>
-      <c r="C248" s="14"/>
-      <c r="D248" s="14"/>
-      <c r="E248" s="15"/>
+      <c r="B248" s="9"/>
+      <c r="C248" s="9"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="10"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>6</v>
       </c>
-      <c r="B249" s="14"/>
-      <c r="C249" s="14"/>
-      <c r="D249" s="14"/>
-      <c r="E249" s="15"/>
+      <c r="B249" s="9"/>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+      <c r="E249" s="10"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>7</v>
       </c>
-      <c r="B250" s="14"/>
-      <c r="C250" s="14"/>
-      <c r="D250" s="14"/>
-      <c r="E250" s="15"/>
+      <c r="B250" s="9"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="10"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>8</v>
       </c>
-      <c r="B251" s="14"/>
-      <c r="C251" s="14"/>
-      <c r="D251" s="14"/>
-      <c r="E251" s="15"/>
+      <c r="B251" s="9"/>
+      <c r="C251" s="9"/>
+      <c r="D251" s="9"/>
+      <c r="E251" s="10"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>9</v>
       </c>
-      <c r="B252" s="14"/>
-      <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
-      <c r="E252" s="15"/>
+      <c r="B252" s="9"/>
+      <c r="C252" s="9"/>
+      <c r="D252" s="9"/>
+      <c r="E252" s="10"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>10</v>
       </c>
-      <c r="B253" s="14"/>
-      <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
-      <c r="E253" s="15"/>
+      <c r="B253" s="9"/>
+      <c r="C253" s="9"/>
+      <c r="D253" s="9"/>
+      <c r="E253" s="10"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>11</v>
       </c>
-      <c r="B254" s="14"/>
-      <c r="C254" s="14"/>
-      <c r="D254" s="14"/>
-      <c r="E254" s="15"/>
+      <c r="B254" s="9"/>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+      <c r="E254" s="10"/>
     </row>
     <row r="255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>12</v>
       </c>
-      <c r="B255" s="16"/>
-      <c r="C255" s="16"/>
-      <c r="D255" s="16"/>
-      <c r="E255" s="17"/>
+      <c r="B255" s="11"/>
+      <c r="C255" s="11"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="12"/>
     </row>
     <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B259" s="9">
+      <c r="B259" s="27">
         <v>13</v>
       </c>
-      <c r="C259" s="9"/>
-      <c r="D259" s="9"/>
-      <c r="E259" s="10"/>
+      <c r="C259" s="27"/>
+      <c r="D259" s="27"/>
+      <c r="E259" s="28"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
-      <c r="D260" s="11"/>
-      <c r="E260" s="12"/>
+      <c r="B260" s="23"/>
+      <c r="C260" s="23"/>
+      <c r="D260" s="23"/>
+      <c r="E260" s="24"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B261" s="11"/>
-      <c r="C261" s="11"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="12"/>
+      <c r="B261" s="23"/>
+      <c r="C261" s="23"/>
+      <c r="D261" s="23"/>
+      <c r="E261" s="24"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B262" s="11"/>
-      <c r="C262" s="11"/>
-      <c r="D262" s="11"/>
-      <c r="E262" s="12"/>
+      <c r="B262" s="23"/>
+      <c r="C262" s="23"/>
+      <c r="D262" s="23"/>
+      <c r="E262" s="24"/>
     </row>
     <row r="263" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B263" s="39"/>
-      <c r="C263" s="39"/>
-      <c r="D263" s="39"/>
-      <c r="E263" s="40"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="25"/>
+      <c r="D263" s="25"/>
+      <c r="E263" s="26"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
@@ -4577,157 +4620,157 @@
       <c r="A265" s="3">
         <v>1</v>
       </c>
-      <c r="B265" s="14"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
-      <c r="E265" s="15"/>
+      <c r="B265" s="9"/>
+      <c r="C265" s="9"/>
+      <c r="D265" s="9"/>
+      <c r="E265" s="10"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>2</v>
       </c>
-      <c r="B266" s="14"/>
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
-      <c r="E266" s="15"/>
+      <c r="B266" s="9"/>
+      <c r="C266" s="9"/>
+      <c r="D266" s="9"/>
+      <c r="E266" s="10"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>3</v>
       </c>
-      <c r="B267" s="14"/>
-      <c r="C267" s="14"/>
-      <c r="D267" s="14"/>
-      <c r="E267" s="15"/>
+      <c r="B267" s="9"/>
+      <c r="C267" s="9"/>
+      <c r="D267" s="9"/>
+      <c r="E267" s="10"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>4</v>
       </c>
-      <c r="B268" s="14"/>
-      <c r="C268" s="14"/>
-      <c r="D268" s="14"/>
-      <c r="E268" s="15"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="E268" s="10"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>5</v>
       </c>
-      <c r="B269" s="14"/>
-      <c r="C269" s="14"/>
-      <c r="D269" s="14"/>
-      <c r="E269" s="15"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="10"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>6</v>
       </c>
-      <c r="B270" s="14"/>
-      <c r="C270" s="14"/>
-      <c r="D270" s="14"/>
-      <c r="E270" s="15"/>
+      <c r="B270" s="9"/>
+      <c r="C270" s="9"/>
+      <c r="D270" s="9"/>
+      <c r="E270" s="10"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>7</v>
       </c>
-      <c r="B271" s="14"/>
-      <c r="C271" s="14"/>
-      <c r="D271" s="14"/>
-      <c r="E271" s="15"/>
+      <c r="B271" s="9"/>
+      <c r="C271" s="9"/>
+      <c r="D271" s="9"/>
+      <c r="E271" s="10"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>8</v>
       </c>
-      <c r="B272" s="14"/>
-      <c r="C272" s="14"/>
-      <c r="D272" s="14"/>
-      <c r="E272" s="15"/>
+      <c r="B272" s="9"/>
+      <c r="C272" s="9"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="10"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>9</v>
       </c>
-      <c r="B273" s="14"/>
-      <c r="C273" s="14"/>
-      <c r="D273" s="14"/>
-      <c r="E273" s="15"/>
+      <c r="B273" s="9"/>
+      <c r="C273" s="9"/>
+      <c r="D273" s="9"/>
+      <c r="E273" s="10"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>10</v>
       </c>
-      <c r="B274" s="14"/>
-      <c r="C274" s="14"/>
-      <c r="D274" s="14"/>
-      <c r="E274" s="15"/>
+      <c r="B274" s="9"/>
+      <c r="C274" s="9"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="10"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>11</v>
       </c>
-      <c r="B275" s="14"/>
-      <c r="C275" s="14"/>
-      <c r="D275" s="14"/>
-      <c r="E275" s="15"/>
+      <c r="B275" s="9"/>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+      <c r="E275" s="10"/>
     </row>
     <row r="276" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6">
         <v>12</v>
       </c>
-      <c r="B276" s="16"/>
-      <c r="C276" s="16"/>
-      <c r="D276" s="16"/>
-      <c r="E276" s="17"/>
+      <c r="B276" s="11"/>
+      <c r="C276" s="11"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="12"/>
     </row>
     <row r="279" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B280" s="9">
+      <c r="B280" s="27">
         <v>14</v>
       </c>
-      <c r="C280" s="9"/>
-      <c r="D280" s="9"/>
-      <c r="E280" s="10"/>
+      <c r="C280" s="27"/>
+      <c r="D280" s="27"/>
+      <c r="E280" s="28"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B281" s="11"/>
-      <c r="C281" s="11"/>
-      <c r="D281" s="11"/>
-      <c r="E281" s="12"/>
+      <c r="B281" s="23"/>
+      <c r="C281" s="23"/>
+      <c r="D281" s="23"/>
+      <c r="E281" s="24"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B282" s="11"/>
-      <c r="C282" s="11"/>
-      <c r="D282" s="11"/>
-      <c r="E282" s="12"/>
+      <c r="B282" s="23"/>
+      <c r="C282" s="23"/>
+      <c r="D282" s="23"/>
+      <c r="E282" s="24"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B283" s="11"/>
-      <c r="C283" s="11"/>
-      <c r="D283" s="11"/>
-      <c r="E283" s="12"/>
+      <c r="B283" s="23"/>
+      <c r="C283" s="23"/>
+      <c r="D283" s="23"/>
+      <c r="E283" s="24"/>
     </row>
     <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B284" s="39"/>
-      <c r="C284" s="39"/>
-      <c r="D284" s="39"/>
-      <c r="E284" s="40"/>
+      <c r="B284" s="25"/>
+      <c r="C284" s="25"/>
+      <c r="D284" s="25"/>
+      <c r="E284" s="26"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
@@ -4750,157 +4793,157 @@
       <c r="A286" s="3">
         <v>1</v>
       </c>
-      <c r="B286" s="14"/>
-      <c r="C286" s="14"/>
-      <c r="D286" s="14"/>
-      <c r="E286" s="15"/>
+      <c r="B286" s="9"/>
+      <c r="C286" s="9"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="10"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>2</v>
       </c>
-      <c r="B287" s="14"/>
-      <c r="C287" s="14"/>
-      <c r="D287" s="14"/>
-      <c r="E287" s="15"/>
+      <c r="B287" s="9"/>
+      <c r="C287" s="9"/>
+      <c r="D287" s="9"/>
+      <c r="E287" s="10"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>3</v>
       </c>
-      <c r="B288" s="14"/>
-      <c r="C288" s="14"/>
-      <c r="D288" s="14"/>
-      <c r="E288" s="15"/>
+      <c r="B288" s="9"/>
+      <c r="C288" s="9"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="10"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>4</v>
       </c>
-      <c r="B289" s="14"/>
-      <c r="C289" s="14"/>
-      <c r="D289" s="14"/>
-      <c r="E289" s="15"/>
+      <c r="B289" s="9"/>
+      <c r="C289" s="9"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="10"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>5</v>
       </c>
-      <c r="B290" s="14"/>
-      <c r="C290" s="14"/>
-      <c r="D290" s="14"/>
-      <c r="E290" s="15"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="9"/>
+      <c r="D290" s="9"/>
+      <c r="E290" s="10"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>6</v>
       </c>
-      <c r="B291" s="14"/>
-      <c r="C291" s="14"/>
-      <c r="D291" s="14"/>
-      <c r="E291" s="15"/>
+      <c r="B291" s="9"/>
+      <c r="C291" s="9"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="10"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>7</v>
       </c>
-      <c r="B292" s="14"/>
-      <c r="C292" s="14"/>
-      <c r="D292" s="14"/>
-      <c r="E292" s="15"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="9"/>
+      <c r="D292" s="9"/>
+      <c r="E292" s="10"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>8</v>
       </c>
-      <c r="B293" s="14"/>
-      <c r="C293" s="14"/>
-      <c r="D293" s="14"/>
-      <c r="E293" s="15"/>
+      <c r="B293" s="9"/>
+      <c r="C293" s="9"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="10"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>9</v>
       </c>
-      <c r="B294" s="14"/>
-      <c r="C294" s="14"/>
-      <c r="D294" s="14"/>
-      <c r="E294" s="15"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="9"/>
+      <c r="D294" s="9"/>
+      <c r="E294" s="10"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>10</v>
       </c>
-      <c r="B295" s="14"/>
-      <c r="C295" s="14"/>
-      <c r="D295" s="14"/>
-      <c r="E295" s="15"/>
+      <c r="B295" s="9"/>
+      <c r="C295" s="9"/>
+      <c r="D295" s="9"/>
+      <c r="E295" s="10"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>11</v>
       </c>
-      <c r="B296" s="14"/>
-      <c r="C296" s="14"/>
-      <c r="D296" s="14"/>
-      <c r="E296" s="15"/>
+      <c r="B296" s="9"/>
+      <c r="C296" s="9"/>
+      <c r="D296" s="9"/>
+      <c r="E296" s="10"/>
     </row>
     <row r="297" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6">
         <v>12</v>
       </c>
-      <c r="B297" s="16"/>
-      <c r="C297" s="16"/>
-      <c r="D297" s="16"/>
-      <c r="E297" s="17"/>
+      <c r="B297" s="11"/>
+      <c r="C297" s="11"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="12"/>
     </row>
     <row r="300" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B301" s="9">
+      <c r="B301" s="27">
         <v>15</v>
       </c>
-      <c r="C301" s="9"/>
-      <c r="D301" s="9"/>
-      <c r="E301" s="10"/>
+      <c r="C301" s="27"/>
+      <c r="D301" s="27"/>
+      <c r="E301" s="28"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="11"/>
-      <c r="E302" s="12"/>
+      <c r="B302" s="23"/>
+      <c r="C302" s="23"/>
+      <c r="D302" s="23"/>
+      <c r="E302" s="24"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B303" s="11"/>
-      <c r="C303" s="11"/>
-      <c r="D303" s="11"/>
-      <c r="E303" s="12"/>
+      <c r="B303" s="23"/>
+      <c r="C303" s="23"/>
+      <c r="D303" s="23"/>
+      <c r="E303" s="24"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B304" s="11"/>
-      <c r="C304" s="11"/>
-      <c r="D304" s="11"/>
-      <c r="E304" s="12"/>
+      <c r="B304" s="23"/>
+      <c r="C304" s="23"/>
+      <c r="D304" s="23"/>
+      <c r="E304" s="24"/>
     </row>
     <row r="305" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B305" s="39"/>
-      <c r="C305" s="39"/>
-      <c r="D305" s="39"/>
-      <c r="E305" s="40"/>
+      <c r="B305" s="25"/>
+      <c r="C305" s="25"/>
+      <c r="D305" s="25"/>
+      <c r="E305" s="26"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
@@ -4923,112 +4966,198 @@
       <c r="A307" s="3">
         <v>1</v>
       </c>
-      <c r="B307" s="14"/>
-      <c r="C307" s="14"/>
-      <c r="D307" s="14"/>
-      <c r="E307" s="15"/>
+      <c r="B307" s="9"/>
+      <c r="C307" s="9"/>
+      <c r="D307" s="9"/>
+      <c r="E307" s="10"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>2</v>
       </c>
-      <c r="B308" s="14"/>
-      <c r="C308" s="14"/>
-      <c r="D308" s="14"/>
-      <c r="E308" s="15"/>
+      <c r="B308" s="9"/>
+      <c r="C308" s="9"/>
+      <c r="D308" s="9"/>
+      <c r="E308" s="10"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>3</v>
       </c>
-      <c r="B309" s="14"/>
-      <c r="C309" s="14"/>
-      <c r="D309" s="14"/>
-      <c r="E309" s="15"/>
+      <c r="B309" s="9"/>
+      <c r="C309" s="9"/>
+      <c r="D309" s="9"/>
+      <c r="E309" s="10"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>4</v>
       </c>
-      <c r="B310" s="14"/>
-      <c r="C310" s="14"/>
-      <c r="D310" s="14"/>
-      <c r="E310" s="15"/>
+      <c r="B310" s="9"/>
+      <c r="C310" s="9"/>
+      <c r="D310" s="9"/>
+      <c r="E310" s="10"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>5</v>
       </c>
-      <c r="B311" s="14"/>
-      <c r="C311" s="14"/>
-      <c r="D311" s="14"/>
-      <c r="E311" s="15"/>
+      <c r="B311" s="9"/>
+      <c r="C311" s="9"/>
+      <c r="D311" s="9"/>
+      <c r="E311" s="10"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>6</v>
       </c>
-      <c r="B312" s="14"/>
-      <c r="C312" s="14"/>
-      <c r="D312" s="14"/>
-      <c r="E312" s="15"/>
+      <c r="B312" s="9"/>
+      <c r="C312" s="9"/>
+      <c r="D312" s="9"/>
+      <c r="E312" s="10"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>7</v>
       </c>
-      <c r="B313" s="14"/>
-      <c r="C313" s="14"/>
-      <c r="D313" s="14"/>
-      <c r="E313" s="15"/>
+      <c r="B313" s="9"/>
+      <c r="C313" s="9"/>
+      <c r="D313" s="9"/>
+      <c r="E313" s="10"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>8</v>
       </c>
-      <c r="B314" s="14"/>
-      <c r="C314" s="14"/>
-      <c r="D314" s="14"/>
-      <c r="E314" s="15"/>
+      <c r="B314" s="9"/>
+      <c r="C314" s="9"/>
+      <c r="D314" s="9"/>
+      <c r="E314" s="10"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>9</v>
       </c>
-      <c r="B315" s="14"/>
-      <c r="C315" s="14"/>
-      <c r="D315" s="14"/>
-      <c r="E315" s="15"/>
+      <c r="B315" s="9"/>
+      <c r="C315" s="9"/>
+      <c r="D315" s="9"/>
+      <c r="E315" s="10"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>10</v>
       </c>
-      <c r="B316" s="14"/>
-      <c r="C316" s="14"/>
-      <c r="D316" s="14"/>
-      <c r="E316" s="15"/>
+      <c r="B316" s="9"/>
+      <c r="C316" s="9"/>
+      <c r="D316" s="9"/>
+      <c r="E316" s="10"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>11</v>
       </c>
-      <c r="B317" s="14"/>
-      <c r="C317" s="14"/>
-      <c r="D317" s="14"/>
-      <c r="E317" s="15"/>
+      <c r="B317" s="9"/>
+      <c r="C317" s="9"/>
+      <c r="D317" s="9"/>
+      <c r="E317" s="10"/>
     </row>
     <row r="318" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6">
         <v>12</v>
       </c>
-      <c r="B318" s="16"/>
-      <c r="C318" s="16"/>
-      <c r="D318" s="16"/>
-      <c r="E318" s="17"/>
+      <c r="B318" s="11"/>
+      <c r="C318" s="11"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G18:M24"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B281:E281"/>
+    <mergeCell ref="B238:E238"/>
+    <mergeCell ref="B239:E239"/>
+    <mergeCell ref="B240:E240"/>
+    <mergeCell ref="B241:E241"/>
+    <mergeCell ref="B242:E242"/>
+    <mergeCell ref="B259:E259"/>
+    <mergeCell ref="B260:E260"/>
+    <mergeCell ref="B261:E261"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B263:E263"/>
+    <mergeCell ref="B280:E280"/>
     <mergeCell ref="B304:E304"/>
     <mergeCell ref="B305:E305"/>
     <mergeCell ref="B282:E282"/>
@@ -5037,92 +5166,6 @@
     <mergeCell ref="B301:E301"/>
     <mergeCell ref="B302:E302"/>
     <mergeCell ref="B303:E303"/>
-    <mergeCell ref="B260:E260"/>
-    <mergeCell ref="B261:E261"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B263:E263"/>
-    <mergeCell ref="B280:E280"/>
-    <mergeCell ref="B281:E281"/>
-    <mergeCell ref="B238:E238"/>
-    <mergeCell ref="B239:E239"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="B241:E241"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B259:E259"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G18:M24"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5131,10 +5174,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EA9966-ED95-4039-B60E-CE7B9F52FC0A}">
-  <dimension ref="A5:K20"/>
+  <dimension ref="A5:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5145,93 +5188,133 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="A6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5244,60 +5327,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1D545D-F6BA-427E-ACEB-5172F59F32A1}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/BackBaseCloud.xlsx
+++ b/BackBaseCloud.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PLKAGRA1\source\priv\repos\BB-task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84476F04-2149-41F6-AF57-49DE5D2C61A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B48D43-1CB2-48FD-A331-B90CB7B5DBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8475" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Read-me" sheetId="1" r:id="rId1"/>
+    <sheet name="Read me" sheetId="8" r:id="rId1"/>
     <sheet name="CRUD Articles test plan" sheetId="7" r:id="rId2"/>
-    <sheet name="Test automation" sheetId="8" r:id="rId3"/>
-    <sheet name="Defects" sheetId="10" r:id="rId4"/>
+    <sheet name="CRUD Articles manual execution" sheetId="13" r:id="rId3"/>
+    <sheet name="CRUD Articles automat execution" sheetId="14" r:id="rId4"/>
+    <sheet name="Defects" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,24 +31,6 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={5EE32D7F-17A9-4512-BA4D-17B5F34C5D60}</author>
-  </authors>
-  <commentList>
-    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{5EE32D7F-17A9-4512-BA4D-17B5F34C5D60}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    After years working with US folks, I learnd to google any acronims. Good that I did it, CRUD mean create, read, update and delate what clarify scope of functionality.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>Kamil Grabiec</author>
     <author>tc={2DE6D953-5491-45A4-87D8-8D2227773545}</author>
     <author>tc={DE2D4020-B1C0-4C40-B255-8E8BBF495C7E}</author>
@@ -58,6 +41,7 @@
     <author>tc={722EF97A-6C13-4623-B9FC-692F2649955C}</author>
     <author>tc={A47CD464-96DD-454E-9EF8-6E9675183B5F}</author>
     <author>tc={8F36FF6D-8F81-4BE1-9A5C-7F028C86A86C}</author>
+    <author>tc={C1894308-5092-48B4-8DD0-D0DF90D871FD}</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1E12C3C5-14C3-48C0-835C-39E59B97B011}">
@@ -423,6 +407,14 @@
         </r>
       </text>
     </comment>
+    <comment ref="B184" authorId="10" shapeId="0" xr:uid="{C1894308-5092-48B4-8DD0-D0DF90D871FD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In real project, I will use provided web page to create my own markdown syntax body used for testing and attached it to test case</t>
+      </text>
+    </comment>
     <comment ref="A200" authorId="0" shapeId="0" xr:uid="{777D2C8F-92AB-4C7A-8429-22877C178C1D}">
       <text>
         <r>
@@ -471,7 +463,126 @@
         </r>
       </text>
     </comment>
-    <comment ref="A242" authorId="0" shapeId="0" xr:uid="{CC0FC433-B63C-4F51-B57E-6027C46D604B}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kamil Grabiec</author>
+    <author>tc={544FEE60-EB29-409E-BF0D-A3A849567019}</author>
+    <author>tc={24F795C7-1D7D-4758-B149-4E0188AD8FCA}</author>
+    <author>tc={F889EEFB-42FF-4209-BF61-BF6A47C58230}</author>
+    <author>tc={A4A252EA-4AF3-496E-8AD4-E2C285C1F563}</author>
+    <author>tc={72D151AE-09F7-4599-92F1-5292CD67FC9D}</author>
+    <author>tc={B6C18F91-F304-4793-9433-A3C80A2E4CDA}</author>
+    <author>tc={A26E60F3-6434-48B8-89D5-7EEA59590CC7}</author>
+    <author>tc={E1AB14AC-937D-4E42-A8E7-4555B1DF21F6}</author>
+    <author>tc={0D6CC9C8-C577-4650-A0EE-60603F860B61}</author>
+    <author>tc={CF063BCA-5891-4208-B8F7-C64959551456}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0737BB26-4505-439E-BE46-B967C9001CDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Software build version
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2793A39F-49EE-4777-B113-6583790D41B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Device, Resolution, Browser, Operation System,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="1" shapeId="0" xr:uid="{544FEE60-EB29-409E-BF0D-A3A849567019}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    as not loged in, as loged in, own articles,</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{2E161174-F9F7-40B7-B145-58DA8466E2A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+General assumptions that apply for whole test suite</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="2" shapeId="0" xr:uid="{24F795C7-1D7D-4758-B149-4E0188AD8FCA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    tags, pagination, own articles, others articles,
+Reply:
+    but is it for sure scope of this functionality?</t>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="3" shapeId="0" xr:uid="{F889EEFB-42FF-4209-BF61-BF6A47C58230}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Loged in as someone else or not loged in, try to delete or edit article</t>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{24F2A5FC-436D-43CF-BA69-D81F9BD0A738}">
       <text>
         <r>
           <rPr>
@@ -495,7 +606,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="A263" authorId="0" shapeId="0" xr:uid="{B13F6AB1-049D-4CA7-9E9E-9557F90143BC}">
+    <comment ref="B14" authorId="4" shapeId="0" xr:uid="{A4A252EA-4AF3-496E-8AD4-E2C285C1F563}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I plan to automate this test case so I want to set up clear rules how article should be named but in way which gives me confidence there won't be duplicates assuming that script is runned once per day.</t>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="5" shapeId="0" xr:uid="{72D151AE-09F7-4599-92F1-5292CD67FC9D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In this scenario, I don't want to fail the test because of text content. It should be happy path</t>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{8A201092-2619-4202-836E-893CACB9CFCD}">
       <text>
         <r>
           <rPr>
@@ -519,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A284" authorId="0" shapeId="0" xr:uid="{A31D785E-0FF1-47FC-A800-BF24EE2118C8}">
+    <comment ref="A52" authorId="0" shapeId="0" xr:uid="{AF033EBF-183B-43E9-AE55-3883F16284D2}">
       <text>
         <r>
           <rPr>
@@ -543,7 +670,215 @@
         </r>
       </text>
     </comment>
-    <comment ref="A305" authorId="0" shapeId="0" xr:uid="{8BA2F4A2-30C8-4364-8DF6-CEB12DF0F201}">
+    <comment ref="A73" authorId="0" shapeId="0" xr:uid="{E3161DB0-FADD-4311-9C44-3D516381AF03}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A94" authorId="0" shapeId="0" xr:uid="{839DDF7B-596E-423D-AA61-85B97D43800A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B94" authorId="6" shapeId="0" xr:uid="{B6C18F91-F304-4793-9433-A3C80A2E4CDA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This also could be done in bit more robust way, where tag will also contain current date.</t>
+      </text>
+    </comment>
+    <comment ref="A95" authorId="7" shapeId="0" xr:uid="{A26E60F3-6434-48B8-89D5-7EEA59590CC7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I was unable to add a tag to the article. Not sure what to do with this. Leave for now.</t>
+      </text>
+    </comment>
+    <comment ref="A115" authorId="0" shapeId="0" xr:uid="{FFFB303B-E783-4C07-987E-247224E93998}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A136" authorId="0" shapeId="0" xr:uid="{4F0695E0-BC9A-4AD0-A414-62E7FCD0C796}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A157" authorId="0" shapeId="0" xr:uid="{A101913D-ADED-40F7-883B-7EDC652B56F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D159" authorId="8" shapeId="0" xr:uid="{E1AB14AC-937D-4E42-A8E7-4555B1DF21F6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Status is neutral because I really don't know what requiremets are here. Test case created as example.</t>
+      </text>
+    </comment>
+    <comment ref="A179" authorId="0" shapeId="0" xr:uid="{70E9F282-8F9A-41B4-A54A-9A137B4101BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B184" authorId="9" shapeId="0" xr:uid="{0D6CC9C8-C577-4650-A0EE-60603F860B61}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In real project, I will use provided web page to create my own markdown syntax body used for testing and attached it to test case</t>
+      </text>
+    </comment>
+    <comment ref="A200" authorId="0" shapeId="0" xr:uid="{C957ED22-29FF-4847-8127-9FF060EFD4CB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D202" authorId="10" shapeId="0" xr:uid="{CF063BCA-5891-4208-B8F7-C64959551456}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Status is neutral because I really don't know what requiremets are here. Test case created as example.</t>
+      </text>
+    </comment>
+    <comment ref="A221" authorId="0" shapeId="0" xr:uid="{EDC653F8-7B0F-47EA-B490-6805D900914D}">
       <text>
         <r>
           <rPr>
@@ -571,8 +906,256 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kamil Grabiec</author>
+    <author>tc={E1C0E1F3-7422-4BA5-9488-AD9E5274138B}</author>
+    <author>tc={2DB9FFFB-1ACA-4E20-AEEC-6ACC6DF7EB46}</author>
+    <author>tc={FE835174-1B93-473F-B0EC-6719BEB5173B}</author>
+    <author>tc={BD288906-B611-4F02-BA59-C288338EF85C}</author>
+    <author>tc={C4777C3C-B990-431E-93BB-B3D058D9781B}</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{ACC9AF52-6FBE-4A50-84A8-5E123704F93D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Software build version
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{3277CD6F-BE24-4E7C-A4FF-F56D119AD13D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Device, Resolution, Browser, Operation System,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{520793BE-4A27-431A-93EE-D5DAB668939A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+General assumptions that apply for whole test suite</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{2D61745F-794B-4789-AB79-466F5AB3CC0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{E1C0E1F3-7422-4BA5-9488-AD9E5274138B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I plan to automate this test case so I want to set up clear rules how article should be named but in way which gives me confidence there won't be duplicates assuming that script is runned once per day.</t>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="2" shapeId="0" xr:uid="{2DB9FFFB-1ACA-4E20-AEEC-6ACC6DF7EB46}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In this scenario, I don't want to fail the test because of text content. It should be happy path</t>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0" xr:uid="{676DBEE8-6A65-4787-BCF8-7B85A391674C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A52" authorId="0" shapeId="0" xr:uid="{833AAE59-33B8-4E8F-9526-F778133FC85E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A73" authorId="0" shapeId="0" xr:uid="{47EB1BD3-D5A8-4127-8746-F1D3BE99CA2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B84" authorId="3" shapeId="0" xr:uid="{FE835174-1B93-473F-B0EC-6719BEB5173B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    'What's this article about?' field was skipped because it seems that this value is not used anywhere.</t>
+      </text>
+    </comment>
+    <comment ref="A94" authorId="0" shapeId="0" xr:uid="{90396077-66CA-4950-B596-C6FFE33BFCCE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kamil Grabiec:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Detailed assumptions applied for this test case only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B94" authorId="4" shapeId="0" xr:uid="{BD288906-B611-4F02-BA59-C288338EF85C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This also could be done in bit more robust way, where tag will also contain current date.</t>
+      </text>
+    </comment>
+    <comment ref="A95" authorId="5" shapeId="0" xr:uid="{C4777C3C-B990-431E-93BB-B3D058D9781B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I was unable to add a tag to the article. Not sure what to do with this. Leave for now.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="170">
   <si>
     <t>Step number</t>
   </si>
@@ -613,31 +1196,13 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>General functionalities</t>
-  </si>
-  <si>
     <t>CRUD Articles</t>
   </si>
   <si>
-    <t>CR*D Comments on articles (no updating required)</t>
-  </si>
-  <si>
-    <t>GET and display paginated lists of articles</t>
-  </si>
-  <si>
-    <t>Favorite articles</t>
-  </si>
-  <si>
-    <t>Follow other users</t>
-  </si>
-  <si>
     <t>Read-me:</t>
   </si>
   <si>
     <t xml:space="preserve">Exploration session note: </t>
-  </si>
-  <si>
-    <t>Selected tool</t>
   </si>
   <si>
     <t>How to run instructions</t>
@@ -654,37 +1219,6 @@
 In this document, you can find excel notes where I put tipnotes for fields meaning and excel comments where I added unoficial notes that should present way of my thinking.  </t>
   </si>
   <si>
-    <t>Risk assasment</t>
-  </si>
-  <si>
-    <t>Functionality related</t>
-  </si>
-  <si>
-    <t xml:space="preserve">functionality Id </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assaments </t>
-  </si>
-  <si>
-    <t>Only main functionalities covered
-QA has enought experience to define technical requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User may not be able to log in </t>
-  </si>
-  <si>
-    <t>User may not seen articles</t>
-  </si>
-  <si>
-    <t>Pagination may not work</t>
-  </si>
-  <si>
-    <t>Tags functionality may not work</t>
-  </si>
-  <si>
-    <t>Article cannot be created, edited or deleted</t>
-  </si>
-  <si>
     <t>Risk Assesment</t>
   </si>
   <si>
@@ -700,9 +1234,6 @@
     <t xml:space="preserve">User may not be able to edit or remove his own articles </t>
   </si>
   <si>
-    <t>Exploration session was required as functionality requirements were missing. By this session QA learn what is the current status of the application, how it works, what tests should be designed and how to apply automation.</t>
-  </si>
-  <si>
     <t>Special characters may not be handled properly</t>
   </si>
   <si>
@@ -721,9 +1252,6 @@
     <t>Create an article</t>
   </si>
   <si>
-    <t>As an KamilG user, log in to page https://qa-task.backbasecloud.com/</t>
-  </si>
-  <si>
     <t>User should be logged in. In top-left corner buttons visible: New Article, Settings, kamilg</t>
   </si>
   <si>
@@ -733,12 +1261,6 @@
     <t>/editor page should open with ability to create new article</t>
   </si>
   <si>
-    <t xml:space="preserve">Fill Article Title field by text: [Current date DD-MM-YYYY] + [User name] </t>
-  </si>
-  <si>
-    <t>Two articles with the same title can exist</t>
-  </si>
-  <si>
     <t>Fill article body by text: 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.'</t>
   </si>
   <si>
@@ -757,9 +1279,6 @@
     <t>Article visible under my posts</t>
   </si>
   <si>
-    <t>As KamilG user, open page https://qa-task.backbasecloud.com/</t>
-  </si>
-  <si>
     <t>Select Global Feed tab</t>
   </si>
   <si>
@@ -772,9 +1291,6 @@
     <t>Veriy page URL and article title</t>
   </si>
   <si>
-    <t>As KamilG user, open page https://qa-task.backbasecloud.com/profile/kamilg</t>
-  </si>
-  <si>
     <t>Select My Posts tab</t>
   </si>
   <si>
@@ -790,27 +1306,12 @@
     <t>Test case 1 was succesfully passed</t>
   </si>
   <si>
-    <t>Select Article with today date within acticle title</t>
-  </si>
-  <si>
     <t>Select Edit Article button</t>
   </si>
   <si>
-    <t xml:space="preserve">Add 'Edit' postfix to article name </t>
-  </si>
-  <si>
-    <t>Add 'Edit' to article body</t>
-  </si>
-  <si>
-    <t>Add 'Edited' tag</t>
-  </si>
-  <si>
     <t>Select Publish Article</t>
   </si>
   <si>
-    <t>Verify 'Edit' in article name,  body and 'edited' tag</t>
-  </si>
-  <si>
     <t>Edit own article</t>
   </si>
   <si>
@@ -820,21 +1321,9 @@
     <t>Planned</t>
   </si>
   <si>
-    <t>Save article URL</t>
-  </si>
-  <si>
     <t>Select 'Delete Article' button</t>
   </si>
   <si>
-    <t>Try to navigate to URL from step 4</t>
-  </si>
-  <si>
-    <t>Navigate to Global Feed</t>
-  </si>
-  <si>
-    <t>Try to find article with current date within name</t>
-  </si>
-  <si>
     <t>Find article by tag</t>
   </si>
   <si>
@@ -844,9 +1333,6 @@
     <t>Each test run should clear out created data at the end, so there always should be only one article under 'edit' tag.</t>
   </si>
   <si>
-    <t>From filtered by tag list, select article which contain today date with article name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tags may not work properly </t>
   </si>
   <si>
@@ -856,33 +1342,12 @@
     <t>Reproduction steps</t>
   </si>
   <si>
-    <t xml:space="preserve">Configuration: User KamilG, PC, Browser Chrome, </t>
-  </si>
-  <si>
     <t xml:space="preserve">Article with the same article name overlaps each other </t>
   </si>
   <si>
-    <t>Log in as any user</t>
-  </si>
-  <si>
-    <t>Create new article called using unique article name and unique article body</t>
-  </si>
-  <si>
-    <t>Verify article exist on global feed</t>
-  </si>
-  <si>
-    <t>Create second article, with exactly the same name as in step 3 but with unique body</t>
-  </si>
-  <si>
-    <t>Expected behaviour</t>
-  </si>
-  <si>
     <t>Observed behaviour</t>
   </si>
   <si>
-    <t>Test cases 1 and 4 were succesfully passed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Automated tests are executed once per day. </t>
   </si>
   <si>
@@ -901,15 +1366,9 @@
     <t>Make sure buttons to edit and  delete article or to add comment are not visible</t>
   </si>
   <si>
-    <t>Limit non logged user permissions</t>
-  </si>
-  <si>
     <t>Unloged user may be able to edit or remove not they own articles</t>
   </si>
   <si>
-    <t>Users KamilG and KamilG_2 exist</t>
-  </si>
-  <si>
     <t>Other user may be able to edit or remove article</t>
   </si>
   <si>
@@ -952,27 +1411,9 @@
     <t xml:space="preserve">Windows 7 and above </t>
   </si>
   <si>
-    <t>Open cmd and navigate to your folder path</t>
-  </si>
-  <si>
-    <t>Run commands:</t>
-  </si>
-  <si>
-    <t>npm install</t>
-  </si>
-  <si>
-    <t>npm install cypress --save-dev</t>
-  </si>
-  <si>
-    <t>npx cypress open</t>
-  </si>
-  <si>
     <t>Automated</t>
   </si>
   <si>
-    <t>Expected that URL will contains [Article Name] + random value</t>
-  </si>
-  <si>
     <t>Select User profile icon</t>
   </si>
   <si>
@@ -982,14 +1423,260 @@
     <t xml:space="preserve">Select the Article </t>
   </si>
   <si>
-    <t>Couldn't add a tag to article</t>
+    <t>Exploration session was required as functionality requirements were missing. By this session QA learn what is the current status of the application, how it works, what tests should be designed and how to apply automation. Found defect were listed under Defect tab of this spreadsheet.</t>
+  </si>
+  <si>
+    <t>Users KamilA and KamilB</t>
+  </si>
+  <si>
+    <t>Expected that URL will contains path 'https://qa-task.backbasecloud.com/article'</t>
+  </si>
+  <si>
+    <t>Article from TC 1 should be visible on top of the list</t>
+  </si>
+  <si>
+    <t>Profile page opened</t>
+  </si>
+  <si>
+    <t>Profile page opend</t>
+  </si>
+  <si>
+    <t>Editor page opened. URL should contains https://qa-task.backbasecloud.com/editor</t>
+  </si>
+  <si>
+    <t>Provide new article body</t>
+  </si>
+  <si>
+    <t>Provide new article tag</t>
+  </si>
+  <si>
+    <t>Provide new article name and description</t>
+  </si>
+  <si>
+    <t>Verify new article name, description, body and tag</t>
+  </si>
+  <si>
+    <t>New values returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depends on project, QA experience and team approach test cases can be more or less detailed with no beter or wors approch. Very detailed test cases are easy to repeate by less skilled team members but from other hand they are sensitive for pesticide paradox. In provided by me test cases I intentionally skipped data values so each time QA engineer could provide different set of data. Probably, dealing with financial industry, I will follow more formal approach. </t>
+  </si>
+  <si>
+    <t>As KamilA user, open page https://qa-task.backbasecloud.com/</t>
+  </si>
+  <si>
+    <t>As an KamilA user, log in to page https://qa-task.backbasecloud.com/</t>
+  </si>
+  <si>
+    <t>Tag should be selected, third tab with tag name should become visible next to Global Feed tab</t>
+  </si>
+  <si>
+    <t>From filtered by tag list, select article which contain article name form test case 4</t>
+  </si>
+  <si>
+    <t>Test cases 1  and 4 passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artice selected </t>
+  </si>
+  <si>
+    <t>Verify non logged user permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page opened </t>
+  </si>
+  <si>
+    <t>Sign In button visible on nav-bar</t>
+  </si>
+  <si>
+    <t>Buttons not visible</t>
+  </si>
+  <si>
+    <t>Article selected</t>
+  </si>
+  <si>
+    <t>Any article exist</t>
+  </si>
+  <si>
+    <t>Navigate to  My Posts tab</t>
+  </si>
+  <si>
+    <t>As Kamil1 user, open page https://qa-task.backbasecloud.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Article with today date </t>
+  </si>
+  <si>
+    <t>Try to find removed article</t>
+  </si>
+  <si>
+    <t>Article should not be visible under Global Feed</t>
+  </si>
+  <si>
+    <t>User moved to the main page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article with title over 64 string title should not be accepted. Publish Article button inactive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Article with over 1025 string  body should not be accepted. Publish Article button inactive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once Article title length is less or equal 64. Publish Article button become active again. </t>
+  </si>
+  <si>
+    <t>Once Article body length is less or equal 1024, Publish Article button become active again.</t>
+  </si>
+  <si>
+    <t>Article published</t>
+  </si>
+  <si>
+    <t>Provide basic article title</t>
+  </si>
+  <si>
+    <t>Fill article body by test data from web page: https://markdown-it.github.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publish article </t>
+  </si>
+  <si>
+    <t>Article published. Article body should corrrectly represent markdown syntax. Use web page to confirm results https://markdown-it.github.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Markdown syntax </t>
+  </si>
+  <si>
+    <t>Provide Article Title with various, supported special charactes</t>
+  </si>
+  <si>
+    <t>Provide Article Description with various, supported special charactes</t>
+  </si>
+  <si>
+    <t>Provide Article Body with various, supported special charactes</t>
+  </si>
+  <si>
+    <t>Provide Article Tag with various, supported special charactes</t>
+  </si>
+  <si>
+    <t>Publish article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All special charactes should be correctly visible under published article. </t>
+  </si>
+  <si>
+    <t>On Global Feed page, find any article created by user KamilA</t>
+  </si>
+  <si>
+    <t>As an KamilB user, log in to page https://qa-task.backbasecloud.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete or Edit  KamilA article </t>
+  </si>
+  <si>
+    <t>Delete or edit buttons should not be visible for user who did not create the article</t>
+  </si>
+  <si>
+    <t>Delete or Edit not own article</t>
+  </si>
+  <si>
+    <t>Any article created by KamilA user exist</t>
+  </si>
+  <si>
+    <t>Special character check</t>
+  </si>
+  <si>
+    <t>I would assume that list of supported special charactes would be defined.</t>
+  </si>
+  <si>
+    <t>Users KamilA exist</t>
+  </si>
+  <si>
+    <t>Users KamilA and KamilB exist</t>
+  </si>
+  <si>
+    <t>Tool - Cypress, Browser - Chrome 98</t>
+  </si>
+  <si>
+    <t>Current production environment version</t>
+  </si>
+  <si>
+    <t>Fill Article Title field by text "Title"</t>
+  </si>
+  <si>
+    <t>Fill Article Title field by text: "Title"</t>
+  </si>
+  <si>
+    <t>New Article published</t>
+  </si>
+  <si>
+    <t>Tag has not been found</t>
+  </si>
+  <si>
+    <t>Article could not be selected</t>
+  </si>
+  <si>
+    <t>Expected that URL will contains path 'https://qa-task.backbasecloud.com/article/</t>
+  </si>
+  <si>
+    <t>Verify current page URL</t>
+  </si>
+  <si>
+    <t>Verify article title and body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify new article name and body </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created tag was not found. Created articles also do not contain it. </t>
+  </si>
+  <si>
+    <t>Clone project - this should install Cypress as well</t>
+  </si>
+  <si>
+    <t>Open CMD</t>
+  </si>
+  <si>
+    <t>Navigate to your folder path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run commend 'npx cypress open' to use UI or 'npx Cypress run' to execute test from cmd </t>
+  </si>
+  <si>
+    <t>Selected automation tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User KamilA, PC, Browser Chrome, </t>
+  </si>
+  <si>
+    <t>Log In as A user</t>
+  </si>
+  <si>
+    <t>Navigate to new article page</t>
+  </si>
+  <si>
+    <t>Provide Article Title, description and body</t>
+  </si>
+  <si>
+    <t>Provide article tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected behaviour </t>
+  </si>
+  <si>
+    <t>Article should contain title, description, body and tag</t>
+  </si>
+  <si>
+    <t>Article contain title, description and body but do not contain tag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1011,19 +1698,59 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF24292F"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -1152,10 +1879,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1180,9 +1911,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1197,12 +1925,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1222,23 +1944,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1247,6 +1966,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1258,14 +1986,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1550,14 +2331,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A26" dT="2022-02-07T12:13:28.02" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{5EE32D7F-17A9-4512-BA4D-17B5F34C5D60}">
-    <text>After years working with US folks, I learnd to google any acronims. Good that I did it, CRUD mean create, read, update and delate what clarify scope of functionality.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="G2" dT="2022-02-07T12:41:03.85" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{2DE6D953-5491-45A4-87D8-8D2227773545}">
     <text>as not loged in, as loged in, own articles,</text>
   </threadedComment>
@@ -1588,471 +2361,354 @@
   <threadedComment ref="B140" dT="2022-02-07T15:29:32.76" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{8F36FF6D-8F81-4BE1-9A5C-7F028C86A86C}">
     <text>Here, I can count how many articles contain today date as a double check if no fake data exists</text>
   </threadedComment>
+  <threadedComment ref="B184" dT="2022-02-12T13:49:32.84" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{C1894308-5092-48B4-8DD0-D0DF90D871FD}">
+    <text>In real project, I will use provided web page to create my own markdown syntax body used for testing and attached it to test case</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G2" dT="2022-02-07T12:41:03.85" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{544FEE60-EB29-409E-BF0D-A3A849567019}">
+    <text>as not loged in, as loged in, own articles,</text>
+  </threadedComment>
+  <threadedComment ref="G3" dT="2022-02-07T12:42:40.78" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{24F795C7-1D7D-4758-B149-4E0188AD8FCA}">
+    <text>tags, pagination, own articles, others articles,</text>
+  </threadedComment>
+  <threadedComment ref="G3" dT="2022-02-07T12:45:09.04" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{1955EA52-22A5-465B-91C3-6EE5C5801379}" parentId="{24F795C7-1D7D-4758-B149-4E0188AD8FCA}">
+    <text>but is it for sure scope of this functionality?</text>
+  </threadedComment>
+  <threadedComment ref="G5" dT="2022-02-07T12:43:04.85" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{F889EEFB-42FF-4209-BF61-BF6A47C58230}">
+    <text>Loged in as someone else or not loged in, try to delete or edit article</text>
+  </threadedComment>
+  <threadedComment ref="B14" dT="2022-02-07T13:55:44.99" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{A4A252EA-4AF3-496E-8AD4-E2C285C1F563}">
+    <text>I plan to automate this test case so I want to set up clear rules how article should be named but in way which gives me confidence there won't be duplicates assuming that script is runned once per day.</text>
+  </threadedComment>
+  <threadedComment ref="B15" dT="2022-02-07T13:52:46.61" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{72D151AE-09F7-4599-92F1-5292CD67FC9D}">
+    <text>In this scenario, I don't want to fail the test because of text content. It should be happy path</text>
+  </threadedComment>
+  <threadedComment ref="B94" dT="2022-02-07T15:28:40.14" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{B6C18F91-F304-4793-9433-A3C80A2E4CDA}">
+    <text>This also could be done in bit more robust way, where tag will also contain current date.</text>
+  </threadedComment>
+  <threadedComment ref="A95" dT="2022-02-11T16:15:27.62" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{A26E60F3-6434-48B8-89D5-7EEA59590CC7}">
+    <text>I was unable to add a tag to the article. Not sure what to do with this. Leave for now.</text>
+  </threadedComment>
+  <threadedComment ref="D159" dT="2022-02-12T14:55:51.03" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{E1AB14AC-937D-4E42-A8E7-4555B1DF21F6}">
+    <text>Status is neutral because I really don't know what requiremets are here. Test case created as example.</text>
+  </threadedComment>
+  <threadedComment ref="B184" dT="2022-02-12T13:49:32.84" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{0D6CC9C8-C577-4650-A0EE-60603F860B61}">
+    <text>In real project, I will use provided web page to create my own markdown syntax body used for testing and attached it to test case</text>
+  </threadedComment>
+  <threadedComment ref="D202" dT="2022-02-12T14:56:05.49" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{CF063BCA-5891-4208-B8F7-C64959551456}">
+    <text>Status is neutral because I really don't know what requiremets are here. Test case created as example.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B14" dT="2022-02-07T13:55:44.99" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{E1C0E1F3-7422-4BA5-9488-AD9E5274138B}">
+    <text>I plan to automate this test case so I want to set up clear rules how article should be named but in way which gives me confidence there won't be duplicates assuming that script is runned once per day.</text>
+  </threadedComment>
+  <threadedComment ref="B15" dT="2022-02-07T13:52:46.61" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{2DB9FFFB-1ACA-4E20-AEEC-6ACC6DF7EB46}">
+    <text>In this scenario, I don't want to fail the test because of text content. It should be happy path</text>
+  </threadedComment>
+  <threadedComment ref="B84" dT="2022-02-07T14:20:18.70" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{FE835174-1B93-473F-B0EC-6719BEB5173B}">
+    <text>'What's this article about?' field was skipped because it seems that this value is not used anywhere.</text>
+  </threadedComment>
+  <threadedComment ref="B94" dT="2022-02-07T15:28:40.14" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{BD288906-B611-4F02-BA59-C288338EF85C}">
+    <text>This also could be done in bit more robust way, where tag will also contain current date.</text>
+  </threadedComment>
+  <threadedComment ref="A95" dT="2022-02-11T16:15:27.62" personId="{A79D5D53-AC37-450C-8F2D-65A57CCEEB0F}" id="{C4777C3C-B990-431E-93BB-B3D058D9781B}">
+    <text>I was unable to add a tag to the article. Not sure what to do with this. Leave for now.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EA9966-ED95-4039-B60E-CE7B9F52FC0A}">
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A13:I23"/>
+  <mergeCells count="2">
+    <mergeCell ref="A17:K22"/>
     <mergeCell ref="A2:I9"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B62000-E9EB-44BF-827E-2F559B912827}">
-  <dimension ref="A1:M318"/>
+  <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="N95" sqref="N95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,43 +2721,43 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="G1" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="18" t="s">
-        <v>36</v>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="G1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="G2" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="16">
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="G2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2110,52 +2766,52 @@
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
-      <c r="G3" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="16">
+      <c r="G3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>109</v>
+      <c r="B4" s="53" t="s">
+        <v>143</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="G4" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="19">
+      <c r="G4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="18">
         <v>4.7</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="16">
+      <c r="G5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="15">
         <v>6</v>
       </c>
     </row>
@@ -2163,20 +2819,20 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="43">
         <v>1</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="G6" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="16">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="G6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="15">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -2184,20 +2840,20 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="G7" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="16">
+      <c r="B7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="G7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="15">
         <v>8</v>
       </c>
     </row>
@@ -2205,20 +2861,20 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="G8" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="16">
+      <c r="B8" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="G8" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="15">
         <v>9</v>
       </c>
     </row>
@@ -2226,37 +2882,37 @@
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="G9" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="16">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="G9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="G10" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="16">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="G10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2276,14 +2932,14 @@
       <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="16">
+      <c r="G11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="15">
         <v>5</v>
       </c>
     </row>
@@ -2292,111 +2948,107 @@
         <v>1</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
-      <c r="G12" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="16">
-        <v>12</v>
-      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>3</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="17"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="15"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>5</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
-      <c r="G17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39"/>
+      <c r="G17" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -2406,15 +3058,15 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
-      <c r="G18" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
+      <c r="G18" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -2424,13 +3076,13 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -2440,13 +3092,13 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="36"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -2456,13 +3108,13 @@
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -2472,13 +3124,13 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -2488,76 +3140,99 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="36"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="31"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="30"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="35"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="43">
         <v>2</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
+      <c r="B28" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="50"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
+      <c r="B30" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -2575,63 +3250,81 @@
       <c r="E32" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="32"/>
+    </row>
+    <row r="33" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>3</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>4</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>5</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>6</v>
       </c>
@@ -2640,7 +3333,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>7</v>
       </c>
@@ -2649,7 +3342,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>8</v>
       </c>
@@ -2658,7 +3351,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>9</v>
       </c>
@@ -2667,7 +3360,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>10</v>
       </c>
@@ -2676,7 +3369,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>11</v>
       </c>
@@ -2685,7 +3378,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>12</v>
       </c>
@@ -2694,59 +3387,59 @@
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="27">
+      <c r="B48" s="43">
         <v>3</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
+      <c r="B49" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24"/>
+      <c r="B50" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
+      <c r="B51" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
@@ -2770,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2781,9 +3474,11 @@
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="D55" s="9"/>
       <c r="E55" s="10"/>
     </row>
@@ -2792,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2803,9 +3498,11 @@
         <v>4</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="D57" s="9"/>
       <c r="E57" s="10"/>
     </row>
@@ -2814,20 +3511,22 @@
         <v>5</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="10"/>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>6</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="D59" s="9"/>
       <c r="E59" s="10"/>
     </row>
@@ -2890,54 +3589,54 @@
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="27">
+      <c r="B69" s="43">
         <v>4</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="28"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="44"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24"/>
+      <c r="B70" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="29"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="24"/>
+      <c r="B71" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="24"/>
+      <c r="B72" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
@@ -2961,7 +3660,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2972,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -2983,9 +3682,11 @@
         <v>3</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="D77" s="9"/>
       <c r="E77" s="10"/>
     </row>
@@ -2994,20 +3695,22 @@
         <v>4</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="10"/>
     </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>5</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="D79" s="9"/>
       <c r="E79" s="10"/>
     </row>
@@ -3016,18 +3719,18 @@
         <v>6</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="10"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>7</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -3038,20 +3741,22 @@
         <v>8</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="10"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>9</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="D83" s="9"/>
       <c r="E83" s="10"/>
     </row>
@@ -3060,9 +3765,11 @@
         <v>10</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="D84" s="9"/>
       <c r="E84" s="10"/>
     </row>
@@ -3089,56 +3796,56 @@
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="43">
         <v>5</v>
       </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="28"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="44"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="24"/>
+      <c r="B91" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="29"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="24"/>
+      <c r="B92" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="29"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="24"/>
+      <c r="B93" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="29"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="30"/>
+      <c r="B94" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="35"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
@@ -3162,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
@@ -3173,20 +3880,22 @@
         <v>2</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="10"/>
     </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>3</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="D98" s="9"/>
       <c r="E98" s="10"/>
     </row>
@@ -3195,9 +3904,11 @@
         <v>4</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="D99" s="9"/>
       <c r="E99" s="10"/>
     </row>
@@ -3278,52 +3989,54 @@
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B111" s="27">
+      <c r="B111" s="43">
         <v>6</v>
       </c>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="28"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="44"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="24"/>
+      <c r="B112" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="29"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="24"/>
+      <c r="B113" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="29"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="24"/>
+      <c r="B114" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="29"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="26"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="40"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -3347,9 +4060,11 @@
         <v>1</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C117" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="D117" s="9"/>
       <c r="E117" s="10"/>
     </row>
@@ -3358,9 +4073,11 @@
         <v>2</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C118" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="D118" s="9"/>
       <c r="E118" s="10"/>
     </row>
@@ -3369,9 +4086,11 @@
         <v>3</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C119" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="D119" s="9"/>
       <c r="E119" s="10"/>
     </row>
@@ -3380,9 +4099,11 @@
         <v>4</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C120" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="D120" s="9"/>
       <c r="E120" s="10"/>
     </row>
@@ -3391,9 +4112,11 @@
         <v>5</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C121" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="D121" s="9"/>
       <c r="E121" s="10"/>
     </row>
@@ -3465,54 +4188,54 @@
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="27">
+      <c r="B132" s="43">
         <v>7</v>
       </c>
-      <c r="C132" s="27"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="28"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="44"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="24"/>
+      <c r="B133" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="29"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B134" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C134" s="23"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="24"/>
+      <c r="B134" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="29"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B135" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="24"/>
+      <c r="B135" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="29"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="26"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="40"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
@@ -3536,18 +4259,18 @@
         <v>1</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="10"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>2</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
@@ -3558,42 +4281,42 @@
         <v>3</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="10"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>4</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C141" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="D141" s="9"/>
       <c r="E141" s="10"/>
     </row>
-    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>5</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C142" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="D142" s="9"/>
       <c r="E142" s="10"/>
     </row>
-    <row r="143" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>6</v>
       </c>
-      <c r="B143" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="10"/>
     </row>
@@ -3601,19 +4324,13 @@
       <c r="A144" s="3">
         <v>7</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="10"/>
     </row>
-    <row r="145" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>8</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
@@ -3660,52 +4377,52 @@
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B153" s="27">
+      <c r="B153" s="43">
         <v>8</v>
       </c>
-      <c r="C153" s="27"/>
-      <c r="D153" s="27"/>
-      <c r="E153" s="28"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="44"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C154" s="23"/>
-      <c r="D154" s="23"/>
-      <c r="E154" s="24"/>
+      <c r="B154" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="29"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B155" s="23"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="24"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="29"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B156" s="23"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="24"/>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="29"/>
     </row>
     <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B157" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="26"/>
+      <c r="B157" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C157" s="39"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="40"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
@@ -3729,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
@@ -3740,84 +4457,93 @@
         <v>2</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="10"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
-      <c r="B161" t="s">
-        <v>114</v>
-      </c>
-      <c r="C161" s="9"/>
+      <c r="B161" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="D161" s="9"/>
       <c r="E161" s="10"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>3</v>
       </c>
-      <c r="B162" t="s">
-        <v>118</v>
+      <c r="B162" s="51" t="s">
+        <v>77</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="10"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>4</v>
       </c>
-      <c r="B163" t="s">
-        <v>115</v>
-      </c>
-      <c r="C163" s="9"/>
+      <c r="B163" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="D163" s="9"/>
       <c r="E163" s="10"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>5</v>
       </c>
-      <c r="B164" t="s">
-        <v>116</v>
-      </c>
-      <c r="C164" s="9"/>
+      <c r="B164" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="D164" s="9"/>
       <c r="E164" s="10"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>6</v>
       </c>
-      <c r="B165" t="s">
-        <v>119</v>
-      </c>
-      <c r="C165" s="9"/>
+      <c r="B165" s="51" t="s">
+        <v>78</v>
+      </c>
       <c r="D165" s="9"/>
       <c r="E165" s="10"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>7</v>
       </c>
-      <c r="B166" t="s">
-        <v>117</v>
-      </c>
-      <c r="C166" s="9"/>
+      <c r="B166" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="D166" s="9"/>
       <c r="E166" s="10"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>8</v>
       </c>
-      <c r="B167" t="s">
-        <v>118</v>
-      </c>
-      <c r="C167" s="9"/>
+      <c r="B167" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="D167" s="9"/>
       <c r="E167" s="10"/>
     </row>
@@ -3862,50 +4588,52 @@
       <c r="A175" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B175" s="27">
+      <c r="B175" s="43">
         <v>9</v>
       </c>
-      <c r="C175" s="27"/>
-      <c r="D175" s="27"/>
-      <c r="E175" s="28"/>
+      <c r="C175" s="43"/>
+      <c r="D175" s="43"/>
+      <c r="E175" s="44"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B176" s="23"/>
-      <c r="C176" s="23"/>
-      <c r="D176" s="23"/>
-      <c r="E176" s="24"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="29"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
-      <c r="D177" s="23"/>
-      <c r="E177" s="24"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="29"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B178" s="23"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="24"/>
-    </row>
-    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="29"/>
+    </row>
+    <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B179" s="25"/>
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="26"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="39"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="40"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>0</v>
       </c>
@@ -3922,54 +4650,65 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>1</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="10"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>2</v>
       </c>
-      <c r="B182" s="9"/>
+      <c r="B182" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="10"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>3</v>
       </c>
-      <c r="B183" s="9"/>
+      <c r="B183" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="10"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>4</v>
       </c>
-      <c r="B184" s="9"/>
+      <c r="B184" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="10"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>5</v>
       </c>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
+      <c r="B185" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="D185" s="9"/>
       <c r="E185" s="10"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I185" s="52"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>6</v>
       </c>
@@ -3978,7 +4717,7 @@
       <c r="D186" s="9"/>
       <c r="E186" s="10"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>7</v>
       </c>
@@ -3987,7 +4726,7 @@
       <c r="D187" s="9"/>
       <c r="E187" s="10"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>8</v>
       </c>
@@ -3996,7 +4735,7 @@
       <c r="D188" s="9"/>
       <c r="E188" s="10"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>9</v>
       </c>
@@ -4005,7 +4744,7 @@
       <c r="D189" s="9"/>
       <c r="E189" s="10"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>10</v>
       </c>
@@ -4014,7 +4753,7 @@
       <c r="D190" s="9"/>
       <c r="E190" s="10"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>11</v>
       </c>
@@ -4023,7 +4762,7 @@
       <c r="D191" s="9"/>
       <c r="E191" s="10"/>
     </row>
-    <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>12</v>
       </c>
@@ -4037,48 +4776,52 @@
       <c r="A196" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B196" s="27">
+      <c r="B196" s="43">
         <v>10</v>
       </c>
-      <c r="C196" s="27"/>
-      <c r="D196" s="27"/>
-      <c r="E196" s="28"/>
+      <c r="C196" s="43"/>
+      <c r="D196" s="43"/>
+      <c r="E196" s="44"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B197" s="23"/>
-      <c r="C197" s="23"/>
-      <c r="D197" s="23"/>
-      <c r="E197" s="24"/>
+      <c r="B197" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="29"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B198" s="23"/>
-      <c r="C198" s="23"/>
-      <c r="D198" s="23"/>
-      <c r="E198" s="24"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="29"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B199" s="23"/>
-      <c r="C199" s="23"/>
-      <c r="D199" s="23"/>
-      <c r="E199" s="24"/>
+      <c r="B199" s="28"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="28"/>
+      <c r="E199" s="29"/>
     </row>
     <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B200" s="25"/>
-      <c r="C200" s="25"/>
-      <c r="D200" s="25"/>
-      <c r="E200" s="26"/>
+      <c r="B200" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C200" s="39"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="40"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
@@ -4097,66 +4840,82 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>1</v>
       </c>
-      <c r="B202" s="9"/>
+      <c r="B202" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="10"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>2</v>
       </c>
-      <c r="B203" s="9"/>
+      <c r="B203" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="10"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>3</v>
       </c>
-      <c r="B204" s="9"/>
+      <c r="B204" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="10"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>4</v>
       </c>
-      <c r="B205" s="9"/>
+      <c r="B205" s="20" t="s">
+        <v>129</v>
+      </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="10"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>5</v>
       </c>
-      <c r="B206" s="9"/>
+      <c r="B206" s="20" t="s">
+        <v>130</v>
+      </c>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="10"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>6</v>
       </c>
-      <c r="B207" s="9"/>
+      <c r="B207" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="10"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>7</v>
       </c>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
+      <c r="B208" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="D208" s="9"/>
       <c r="E208" s="10"/>
     </row>
@@ -4210,48 +4969,52 @@
       <c r="A217" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B217" s="27">
+      <c r="B217" s="43">
         <v>11</v>
       </c>
-      <c r="C217" s="27"/>
-      <c r="D217" s="27"/>
-      <c r="E217" s="28"/>
+      <c r="C217" s="43"/>
+      <c r="D217" s="43"/>
+      <c r="E217" s="44"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B218" s="23"/>
-      <c r="C218" s="23"/>
-      <c r="D218" s="23"/>
-      <c r="E218" s="24"/>
+      <c r="B218" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C218" s="28"/>
+      <c r="D218" s="28"/>
+      <c r="E218" s="29"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B219" s="23"/>
-      <c r="C219" s="23"/>
-      <c r="D219" s="23"/>
-      <c r="E219" s="24"/>
+      <c r="B219" s="28"/>
+      <c r="C219" s="28"/>
+      <c r="D219" s="28"/>
+      <c r="E219" s="29"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B220" s="23"/>
-      <c r="C220" s="23"/>
-      <c r="D220" s="23"/>
-      <c r="E220" s="24"/>
+      <c r="B220" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C220" s="28"/>
+      <c r="D220" s="28"/>
+      <c r="E220" s="29"/>
     </row>
     <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B221" s="25"/>
-      <c r="C221" s="25"/>
-      <c r="D221" s="25"/>
-      <c r="E221" s="26"/>
+      <c r="B221" s="39"/>
+      <c r="C221" s="39"/>
+      <c r="D221" s="39"/>
+      <c r="E221" s="40"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
@@ -4270,30 +5033,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>1</v>
       </c>
-      <c r="B223" s="9"/>
+      <c r="B223" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="10"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>2</v>
       </c>
-      <c r="B224" s="9"/>
+      <c r="B224" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="10"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>3</v>
       </c>
-      <c r="B225" s="9"/>
-      <c r="C225" s="9"/>
+      <c r="B225" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="D225" s="9"/>
       <c r="E225" s="10"/>
     </row>
@@ -4378,700 +5149,70 @@
       <c r="D234" s="11"/>
       <c r="E234" s="12"/>
     </row>
-    <row r="237" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B238" s="27">
-        <v>12</v>
-      </c>
-      <c r="C238" s="27"/>
-      <c r="D238" s="27"/>
-      <c r="E238" s="28"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" s="23"/>
-      <c r="C239" s="23"/>
-      <c r="D239" s="23"/>
-      <c r="E239" s="24"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B240" s="23"/>
-      <c r="C240" s="23"/>
-      <c r="D240" s="23"/>
-      <c r="E240" s="24"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B241" s="23"/>
-      <c r="C241" s="23"/>
-      <c r="D241" s="23"/>
-      <c r="E241" s="24"/>
-    </row>
-    <row r="242" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B242" s="25"/>
-      <c r="C242" s="25"/>
-      <c r="D242" s="25"/>
-      <c r="E242" s="26"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E243" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
-        <v>1</v>
-      </c>
-      <c r="B244" s="9"/>
-      <c r="C244" s="9"/>
-      <c r="D244" s="9"/>
-      <c r="E244" s="10"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
-        <v>2</v>
-      </c>
-      <c r="B245" s="9"/>
-      <c r="C245" s="9"/>
-      <c r="D245" s="9"/>
-      <c r="E245" s="10"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
-        <v>3</v>
-      </c>
-      <c r="B246" s="9"/>
-      <c r="C246" s="9"/>
-      <c r="D246" s="9"/>
-      <c r="E246" s="10"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
-        <v>4</v>
-      </c>
-      <c r="B247" s="9"/>
-      <c r="C247" s="9"/>
-      <c r="D247" s="9"/>
-      <c r="E247" s="10"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
-        <v>5</v>
-      </c>
-      <c r="B248" s="9"/>
-      <c r="C248" s="9"/>
-      <c r="D248" s="9"/>
-      <c r="E248" s="10"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
-        <v>6</v>
-      </c>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="10"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
-        <v>7</v>
-      </c>
-      <c r="B250" s="9"/>
-      <c r="C250" s="9"/>
-      <c r="D250" s="9"/>
-      <c r="E250" s="10"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
-        <v>8</v>
-      </c>
-      <c r="B251" s="9"/>
-      <c r="C251" s="9"/>
-      <c r="D251" s="9"/>
-      <c r="E251" s="10"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
-        <v>9</v>
-      </c>
-      <c r="B252" s="9"/>
-      <c r="C252" s="9"/>
-      <c r="D252" s="9"/>
-      <c r="E252" s="10"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
-        <v>10</v>
-      </c>
-      <c r="B253" s="9"/>
-      <c r="C253" s="9"/>
-      <c r="D253" s="9"/>
-      <c r="E253" s="10"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
-        <v>11</v>
-      </c>
-      <c r="B254" s="9"/>
-      <c r="C254" s="9"/>
-      <c r="D254" s="9"/>
-      <c r="E254" s="10"/>
-    </row>
-    <row r="255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="6">
-        <v>12</v>
-      </c>
-      <c r="B255" s="11"/>
-      <c r="C255" s="11"/>
-      <c r="D255" s="11"/>
-      <c r="E255" s="12"/>
-    </row>
-    <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B259" s="27">
-        <v>13</v>
-      </c>
-      <c r="C259" s="27"/>
-      <c r="D259" s="27"/>
-      <c r="E259" s="28"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B260" s="23"/>
-      <c r="C260" s="23"/>
-      <c r="D260" s="23"/>
-      <c r="E260" s="24"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B261" s="23"/>
-      <c r="C261" s="23"/>
-      <c r="D261" s="23"/>
-      <c r="E261" s="24"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B262" s="23"/>
-      <c r="C262" s="23"/>
-      <c r="D262" s="23"/>
-      <c r="E262" s="24"/>
-    </row>
-    <row r="263" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B263" s="25"/>
-      <c r="C263" s="25"/>
-      <c r="D263" s="25"/>
-      <c r="E263" s="26"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E264" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
-        <v>1</v>
-      </c>
-      <c r="B265" s="9"/>
-      <c r="C265" s="9"/>
-      <c r="D265" s="9"/>
-      <c r="E265" s="10"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="3">
-        <v>2</v>
-      </c>
-      <c r="B266" s="9"/>
-      <c r="C266" s="9"/>
-      <c r="D266" s="9"/>
-      <c r="E266" s="10"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="3">
-        <v>3</v>
-      </c>
-      <c r="B267" s="9"/>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9"/>
-      <c r="E267" s="10"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="3">
-        <v>4</v>
-      </c>
-      <c r="B268" s="9"/>
-      <c r="C268" s="9"/>
-      <c r="D268" s="9"/>
-      <c r="E268" s="10"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="3">
-        <v>5</v>
-      </c>
-      <c r="B269" s="9"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9"/>
-      <c r="E269" s="10"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
-        <v>6</v>
-      </c>
-      <c r="B270" s="9"/>
-      <c r="C270" s="9"/>
-      <c r="D270" s="9"/>
-      <c r="E270" s="10"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
-        <v>7</v>
-      </c>
-      <c r="B271" s="9"/>
-      <c r="C271" s="9"/>
-      <c r="D271" s="9"/>
-      <c r="E271" s="10"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
-        <v>8</v>
-      </c>
-      <c r="B272" s="9"/>
-      <c r="C272" s="9"/>
-      <c r="D272" s="9"/>
-      <c r="E272" s="10"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
-        <v>9</v>
-      </c>
-      <c r="B273" s="9"/>
-      <c r="C273" s="9"/>
-      <c r="D273" s="9"/>
-      <c r="E273" s="10"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
-        <v>10</v>
-      </c>
-      <c r="B274" s="9"/>
-      <c r="C274" s="9"/>
-      <c r="D274" s="9"/>
-      <c r="E274" s="10"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
-        <v>11</v>
-      </c>
-      <c r="B275" s="9"/>
-      <c r="C275" s="9"/>
-      <c r="D275" s="9"/>
-      <c r="E275" s="10"/>
-    </row>
-    <row r="276" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="6">
-        <v>12</v>
-      </c>
-      <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
-      <c r="E276" s="12"/>
-    </row>
-    <row r="279" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B280" s="27">
-        <v>14</v>
-      </c>
-      <c r="C280" s="27"/>
-      <c r="D280" s="27"/>
-      <c r="E280" s="28"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B281" s="23"/>
-      <c r="C281" s="23"/>
-      <c r="D281" s="23"/>
-      <c r="E281" s="24"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B282" s="23"/>
-      <c r="C282" s="23"/>
-      <c r="D282" s="23"/>
-      <c r="E282" s="24"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B283" s="23"/>
-      <c r="C283" s="23"/>
-      <c r="D283" s="23"/>
-      <c r="E283" s="24"/>
-    </row>
-    <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B284" s="25"/>
-      <c r="C284" s="25"/>
-      <c r="D284" s="25"/>
-      <c r="E284" s="26"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E285" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
-        <v>1</v>
-      </c>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9"/>
-      <c r="D286" s="9"/>
-      <c r="E286" s="10"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="3">
-        <v>2</v>
-      </c>
-      <c r="B287" s="9"/>
-      <c r="C287" s="9"/>
-      <c r="D287" s="9"/>
-      <c r="E287" s="10"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="3">
-        <v>3</v>
-      </c>
-      <c r="B288" s="9"/>
-      <c r="C288" s="9"/>
-      <c r="D288" s="9"/>
-      <c r="E288" s="10"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="3">
-        <v>4</v>
-      </c>
-      <c r="B289" s="9"/>
-      <c r="C289" s="9"/>
-      <c r="D289" s="9"/>
-      <c r="E289" s="10"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="3">
-        <v>5</v>
-      </c>
-      <c r="B290" s="9"/>
-      <c r="C290" s="9"/>
-      <c r="D290" s="9"/>
-      <c r="E290" s="10"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
-        <v>6</v>
-      </c>
-      <c r="B291" s="9"/>
-      <c r="C291" s="9"/>
-      <c r="D291" s="9"/>
-      <c r="E291" s="10"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
-        <v>7</v>
-      </c>
-      <c r="B292" s="9"/>
-      <c r="C292" s="9"/>
-      <c r="D292" s="9"/>
-      <c r="E292" s="10"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="3">
-        <v>8</v>
-      </c>
-      <c r="B293" s="9"/>
-      <c r="C293" s="9"/>
-      <c r="D293" s="9"/>
-      <c r="E293" s="10"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
-        <v>9</v>
-      </c>
-      <c r="B294" s="9"/>
-      <c r="C294" s="9"/>
-      <c r="D294" s="9"/>
-      <c r="E294" s="10"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
-        <v>10</v>
-      </c>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9"/>
-      <c r="E295" s="10"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="3">
-        <v>11</v>
-      </c>
-      <c r="B296" s="9"/>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9"/>
-      <c r="E296" s="10"/>
-    </row>
-    <row r="297" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="6">
-        <v>12</v>
-      </c>
-      <c r="B297" s="11"/>
-      <c r="C297" s="11"/>
-      <c r="D297" s="11"/>
-      <c r="E297" s="12"/>
-    </row>
-    <row r="300" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B301" s="27">
-        <v>15</v>
-      </c>
-      <c r="C301" s="27"/>
-      <c r="D301" s="27"/>
-      <c r="E301" s="28"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B302" s="23"/>
-      <c r="C302" s="23"/>
-      <c r="D302" s="23"/>
-      <c r="E302" s="24"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B303" s="23"/>
-      <c r="C303" s="23"/>
-      <c r="D303" s="23"/>
-      <c r="E303" s="24"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B304" s="23"/>
-      <c r="C304" s="23"/>
-      <c r="D304" s="23"/>
-      <c r="E304" s="24"/>
-    </row>
-    <row r="305" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B305" s="25"/>
-      <c r="C305" s="25"/>
-      <c r="D305" s="25"/>
-      <c r="E305" s="26"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D306" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E306" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
-        <v>1</v>
-      </c>
-      <c r="B307" s="9"/>
-      <c r="C307" s="9"/>
-      <c r="D307" s="9"/>
-      <c r="E307" s="10"/>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="3">
-        <v>2</v>
-      </c>
-      <c r="B308" s="9"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="9"/>
-      <c r="E308" s="10"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="3">
-        <v>3</v>
-      </c>
-      <c r="B309" s="9"/>
-      <c r="C309" s="9"/>
-      <c r="D309" s="9"/>
-      <c r="E309" s="10"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="3">
-        <v>4</v>
-      </c>
-      <c r="B310" s="9"/>
-      <c r="C310" s="9"/>
-      <c r="D310" s="9"/>
-      <c r="E310" s="10"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="3">
-        <v>5</v>
-      </c>
-      <c r="B311" s="9"/>
-      <c r="C311" s="9"/>
-      <c r="D311" s="9"/>
-      <c r="E311" s="10"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="3">
-        <v>6</v>
-      </c>
-      <c r="B312" s="9"/>
-      <c r="C312" s="9"/>
-      <c r="D312" s="9"/>
-      <c r="E312" s="10"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="3">
-        <v>7</v>
-      </c>
-      <c r="B313" s="9"/>
-      <c r="C313" s="9"/>
-      <c r="D313" s="9"/>
-      <c r="E313" s="10"/>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="3">
-        <v>8</v>
-      </c>
-      <c r="B314" s="9"/>
-      <c r="C314" s="9"/>
-      <c r="D314" s="9"/>
-      <c r="E314" s="10"/>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="3">
-        <v>9</v>
-      </c>
-      <c r="B315" s="9"/>
-      <c r="C315" s="9"/>
-      <c r="D315" s="9"/>
-      <c r="E315" s="10"/>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="3">
-        <v>10</v>
-      </c>
-      <c r="B316" s="9"/>
-      <c r="C316" s="9"/>
-      <c r="D316" s="9"/>
-      <c r="E316" s="10"/>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="3">
-        <v>11</v>
-      </c>
-      <c r="B317" s="9"/>
-      <c r="C317" s="9"/>
-      <c r="D317" s="9"/>
-      <c r="E317" s="10"/>
-    </row>
-    <row r="318" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="6">
-        <v>12</v>
-      </c>
-      <c r="B318" s="11"/>
-      <c r="C318" s="11"/>
-      <c r="D318" s="11"/>
-      <c r="E318" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="75">
+    <mergeCell ref="G29:M33"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="G9:K9"/>
@@ -5085,87 +5226,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="B115:E115"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B177:E177"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="B175:E175"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="B197:E197"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B199:E199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B281:E281"/>
-    <mergeCell ref="B238:E238"/>
-    <mergeCell ref="B239:E239"/>
-    <mergeCell ref="B240:E240"/>
-    <mergeCell ref="B241:E241"/>
-    <mergeCell ref="B242:E242"/>
-    <mergeCell ref="B259:E259"/>
-    <mergeCell ref="B260:E260"/>
-    <mergeCell ref="B261:E261"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B263:E263"/>
-    <mergeCell ref="B280:E280"/>
-    <mergeCell ref="B304:E304"/>
-    <mergeCell ref="B305:E305"/>
-    <mergeCell ref="B282:E282"/>
-    <mergeCell ref="B283:E283"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="B301:E301"/>
-    <mergeCell ref="B302:E302"/>
-    <mergeCell ref="B303:E303"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5173,219 +5233,3717 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EA9966-ED95-4039-B60E-CE7B9F52FC0A}">
-  <dimension ref="A5:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EAB9E9-A9BF-4A4A-ACAB-FEF0213297B4}">
+  <dimension ref="A1:M234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="L181" sqref="L181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="G1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="G2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="G3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="18">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="G6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="G7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="G8" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="G9" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="G10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="21"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="21"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="21"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="21"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>6</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="21"/>
+      <c r="G17" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>7</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="21"/>
+      <c r="G18" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>8</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>9</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>10</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>11</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>12</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="35"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="43">
+        <v>2</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="50"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="32"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="32"/>
+    </row>
+    <row r="33" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="21"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>3</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="54"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>5</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="54"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>7</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>8</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>9</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>10</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>11</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>12</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="43">
+        <v>3</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="54"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="54"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>5</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>6</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="54"/>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>8</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>9</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>10</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>11</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>12</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="23"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="43">
+        <v>4</v>
+      </c>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="44"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="29"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="40"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>1</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>2</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="20"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>3</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="54"/>
+      <c r="E77" s="21"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>4</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>5</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="54"/>
+      <c r="E79" s="21"/>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>6</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="21"/>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>7</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>8</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>9</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="54"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>10</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="54"/>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>11</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
+        <v>12</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="23"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="43">
+        <v>5</v>
+      </c>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="44"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="29"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="29"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="29"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="35"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>1</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="20"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="21"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>2</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="21"/>
+    </row>
+    <row r="98" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>3</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="55"/>
+      <c r="E98" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>4</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" s="55"/>
+      <c r="E99" s="21"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>5</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="21"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>6</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>7</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="21"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>8</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="21"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>9</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>10</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="21"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>11</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="21"/>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6">
+        <v>12</v>
+      </c>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="23"/>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="43">
+        <v>6</v>
+      </c>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="44"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="29"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="29"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="29"/>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="39"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="40"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>1</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117" s="54"/>
+      <c r="E117" s="21"/>
+    </row>
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>2</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" s="54"/>
+      <c r="E118" s="21"/>
+    </row>
+    <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>3</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D119" s="54"/>
+      <c r="E119" s="21"/>
+    </row>
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>4</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D120" s="54"/>
+      <c r="E120" s="21"/>
+    </row>
+    <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>5</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D121" s="54"/>
+      <c r="E121" s="21"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>6</v>
+      </c>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="21"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>7</v>
+      </c>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="21"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>8</v>
+      </c>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="21"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>9</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="21"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>10</v>
+      </c>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="21"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>11</v>
+      </c>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="21"/>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="6">
+        <v>12</v>
+      </c>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="23"/>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="43">
+        <v>7</v>
+      </c>
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="44"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="29"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="29"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" s="28"/>
+      <c r="D135" s="28"/>
+      <c r="E135" s="29"/>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="39"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="40"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>1</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C138" s="20"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="21"/>
+    </row>
+    <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>2</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C139" s="20"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="21"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>3</v>
+      </c>
+      <c r="B140" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C140" s="20"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="21"/>
+    </row>
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>4</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D141" s="54"/>
+      <c r="E141" s="21"/>
+    </row>
+    <row r="142" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>5</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D142" s="54"/>
+      <c r="E142" s="21"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>6</v>
+      </c>
+      <c r="D143" s="20"/>
+      <c r="E143" s="21"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>7</v>
+      </c>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="21"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>8</v>
+      </c>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="21"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>9</v>
+      </c>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="20"/>
+      <c r="E146" s="21"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>10</v>
+      </c>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="21"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>11</v>
+      </c>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="21"/>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="6">
+        <v>12</v>
+      </c>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
+      <c r="E149" s="23"/>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" s="43">
+        <v>8</v>
+      </c>
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="44"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="29"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="29"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" s="28"/>
+      <c r="C156" s="28"/>
+      <c r="D156" s="28"/>
+      <c r="E156" s="29"/>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C157" s="39"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="40"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>1</v>
+      </c>
+      <c r="B159" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" s="20"/>
+      <c r="D159" s="56"/>
+      <c r="E159" s="21"/>
+    </row>
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>2</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160" s="20"/>
+      <c r="D160" s="56"/>
+      <c r="E160" s="21"/>
+    </row>
+    <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C161" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D161" s="56"/>
+      <c r="E161" s="21"/>
+    </row>
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>3</v>
+      </c>
+      <c r="B162" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C162" s="20"/>
+      <c r="D162" s="56"/>
+      <c r="E162" s="21"/>
+    </row>
+    <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>4</v>
+      </c>
+      <c r="B163" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D163" s="56"/>
+      <c r="E163" s="21"/>
+    </row>
+    <row r="164" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>5</v>
+      </c>
+      <c r="B164" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D164" s="56"/>
+      <c r="E164" s="21"/>
+    </row>
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>6</v>
+      </c>
+      <c r="B165" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D165" s="56"/>
+      <c r="E165" s="21"/>
+    </row>
+    <row r="166" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>7</v>
+      </c>
+      <c r="B166" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C166" s="20" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D166" s="56"/>
+      <c r="E166" s="21"/>
+    </row>
+    <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>8</v>
+      </c>
+      <c r="B167" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C167" s="20" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D167" s="56"/>
+      <c r="E167" s="21"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>9</v>
+      </c>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="20"/>
+      <c r="E168" s="21"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>10</v>
+      </c>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="20"/>
+      <c r="E169" s="21"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>11</v>
+      </c>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="21"/>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="6">
+        <v>12</v>
+      </c>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="E171" s="23"/>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="43">
+        <v>9</v>
+      </c>
+      <c r="C175" s="43"/>
+      <c r="D175" s="43"/>
+      <c r="E175" s="44"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="29"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="29"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="29"/>
+    </row>
+    <row r="179" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="39"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="39"/>
+      <c r="E179" s="40"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>1</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C181" s="20"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="21"/>
+    </row>
+    <row r="182" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>2</v>
+      </c>
+      <c r="B182" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182" s="20"/>
+      <c r="D182" s="54"/>
+      <c r="E182" s="21"/>
+    </row>
+    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>3</v>
+      </c>
+      <c r="B183" s="20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C183" s="20"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="21"/>
+    </row>
+    <row r="184" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>4</v>
+      </c>
+      <c r="B184" s="20" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C184" s="20"/>
+      <c r="D184" s="54"/>
+      <c r="E184" s="21"/>
+    </row>
+    <row r="185" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>5</v>
+      </c>
+      <c r="B185" s="20" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C185" s="20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D185" s="54"/>
+      <c r="E185" s="21"/>
+      <c r="I185" s="52"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>6</v>
+      </c>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="21"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>7</v>
+      </c>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="21"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>8</v>
+      </c>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="21"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>9</v>
+      </c>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="21"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>10</v>
+      </c>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
+      <c r="D190" s="20"/>
+      <c r="E190" s="21"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>11</v>
+      </c>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="20"/>
+      <c r="E191" s="21"/>
+    </row>
+    <row r="192" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="6">
+        <v>12</v>
+      </c>
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
+      <c r="E192" s="23"/>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B196" s="43">
+        <v>10</v>
+      </c>
+      <c r="C196" s="43"/>
+      <c r="D196" s="43"/>
+      <c r="E196" s="44"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="29"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="29"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="28"/>
+      <c r="C199" s="28"/>
+      <c r="D199" s="28"/>
+      <c r="E199" s="29"/>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C200" s="39"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="40"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>1</v>
+      </c>
+      <c r="B202" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C202" s="20"/>
+      <c r="D202" s="56"/>
+      <c r="E202" s="21"/>
+    </row>
+    <row r="203" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>2</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C203" s="20"/>
+      <c r="D203" s="56"/>
+      <c r="E203" s="21"/>
+    </row>
+    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>3</v>
+      </c>
+      <c r="B204" s="20" t="s">
         <v>128</v>
       </c>
+      <c r="C204" s="20"/>
+      <c r="D204" s="56"/>
+      <c r="E204" s="21"/>
+    </row>
+    <row r="205" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>4</v>
+      </c>
+      <c r="B205" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C205" s="20"/>
+      <c r="D205" s="56"/>
+      <c r="E205" s="21"/>
+    </row>
+    <row r="206" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>5</v>
+      </c>
+      <c r="B206" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C206" s="20"/>
+      <c r="D206" s="56"/>
+      <c r="E206" s="21"/>
+    </row>
+    <row r="207" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>6</v>
+      </c>
+      <c r="B207" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C207" s="20"/>
+      <c r="D207" s="56"/>
+      <c r="E207" s="21"/>
+    </row>
+    <row r="208" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>7</v>
+      </c>
+      <c r="B208" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C208" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D208" s="56"/>
+      <c r="E208" s="21"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>8</v>
+      </c>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="21"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>9</v>
+      </c>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="21"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>10</v>
+      </c>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="21"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>11</v>
+      </c>
+      <c r="B212" s="20"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="20"/>
+      <c r="E212" s="21"/>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="6">
+        <v>12</v>
+      </c>
+      <c r="B213" s="22"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
+      <c r="E213" s="23"/>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B217" s="43">
+        <v>11</v>
+      </c>
+      <c r="C217" s="43"/>
+      <c r="D217" s="43"/>
+      <c r="E217" s="44"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C218" s="28"/>
+      <c r="D218" s="28"/>
+      <c r="E218" s="29"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="28"/>
+      <c r="C219" s="28"/>
+      <c r="D219" s="28"/>
+      <c r="E219" s="29"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C220" s="28"/>
+      <c r="D220" s="28"/>
+      <c r="E220" s="29"/>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" s="39"/>
+      <c r="C221" s="39"/>
+      <c r="D221" s="39"/>
+      <c r="E221" s="40"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>1</v>
+      </c>
+      <c r="B223" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C223" s="20"/>
+      <c r="D223" s="54"/>
+      <c r="E223" s="21"/>
+    </row>
+    <row r="224" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>2</v>
+      </c>
+      <c r="B224" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C224" s="20"/>
+      <c r="D224" s="54"/>
+      <c r="E224" s="21"/>
+    </row>
+    <row r="225" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>3</v>
+      </c>
+      <c r="B225" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C225" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D225" s="54"/>
+      <c r="E225" s="21"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>4</v>
+      </c>
+      <c r="B226" s="20"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="21"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>5</v>
+      </c>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="21"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>6</v>
+      </c>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="21"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>7</v>
+      </c>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="21"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>8</v>
+      </c>
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="21"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>9</v>
+      </c>
+      <c r="B231" s="20"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="21"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>10</v>
+      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="21"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>11</v>
+      </c>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="21"/>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="6">
+        <v>12</v>
+      </c>
+      <c r="B234" s="22"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
+      <c r="E234" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:K11"/>
+  <mergeCells count="75">
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B199:E199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="B197:E197"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B175:E175"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:M33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G18:M24"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1D545D-F6BA-427E-ACEB-5172F59F32A1}">
-  <dimension ref="A2:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEDD5A0-3BB7-4D2D-AE6B-A1E836059202}">
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B17" sqref="B17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="24">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="54"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>6</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>7</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>8</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>9</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>10</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>11</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>12</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="43">
+        <v>2</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>3</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="54"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>5</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="54"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>6</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>7</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>8</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>9</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>10</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>11</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>12</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="43">
+        <v>3</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="54"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>4</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D57" s="54"/>
+      <c r="E57" s="21"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>5</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="21"/>
+    </row>
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>6</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="54"/>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>7</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>8</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>9</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>10</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>11</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>12</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="23"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="43">
+        <v>4</v>
+      </c>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="44"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="29"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="40"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>1</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="20"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>2</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="20"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>3</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="54"/>
+      <c r="E77" s="21"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>4</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>5</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="54"/>
+      <c r="E79" s="21"/>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>6</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="21"/>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>7</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>8</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>9</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="54"/>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>10</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="54"/>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>11</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
+        <v>12</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="23"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="43">
+        <v>5</v>
+      </c>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="44"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="29"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="29"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="29"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="35"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>1</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="20"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="21"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>2</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="21"/>
+    </row>
+    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>3</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="55"/>
+      <c r="E98" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>4</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" s="55"/>
+      <c r="E99" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>5</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="21"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>6</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>7</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="21"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>8</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="21"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>9</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>10</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="21"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>11</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="21"/>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6">
+        <v>12</v>
+      </c>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="23"/>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I185" s="52"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1D545D-F6BA-427E-ACEB-5172F59F32A1}">
+  <dimension ref="A2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>94</v>
+      <c r="B5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>95</v>
+      <c r="B6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>96</v>
+      <c r="B7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>98</v>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>134</v>
+        <v>167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
